--- a/BackTest/2019-10-14 BackTest PPT.xlsx
+++ b/BackTest/2019-10-14 BackTest PPT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>42</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-9.523809523809524</v>
+      </c>
       <c r="L12" t="n">
         <v>660.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>44</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>2.702702702702703</v>
+      </c>
       <c r="L13" t="n">
         <v>659.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>44</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>15.15151515151515</v>
+      </c>
       <c r="L14" t="n">
         <v>660</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>47</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>8.571428571428571</v>
+      </c>
       <c r="L15" t="n">
         <v>660.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>51</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>53.33333333333334</v>
+      </c>
       <c r="L16" t="n">
         <v>660.9</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>54</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>43.75</v>
+      </c>
       <c r="L17" t="n">
         <v>662.2</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>54</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>18.18181818181818</v>
+      </c>
       <c r="L18" t="n">
         <v>663.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>57</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-50</v>
+      </c>
       <c r="L19" t="n">
         <v>663.7</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>58</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-52.94117647058824</v>
+      </c>
       <c r="L20" t="n">
         <v>662.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>63</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-61.90476190476191</v>
+      </c>
       <c r="L21" t="n">
         <v>661.4</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>71</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L22" t="n">
         <v>660.9</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>75</v>
       </c>
       <c r="K23" t="n">
-        <v>-17.33333333333334</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L23" t="n">
         <v>660.2</v>
@@ -1466,7 +1488,7 @@
         <v>75</v>
       </c>
       <c r="K24" t="n">
-        <v>-8.823529411764707</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L24" t="n">
         <v>659.5</v>
@@ -1515,7 +1537,7 @@
         <v>79</v>
       </c>
       <c r="K25" t="n">
-        <v>-8.823529411764707</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L25" t="n">
         <v>658.7</v>
@@ -1564,7 +1586,7 @@
         <v>81</v>
       </c>
       <c r="K26" t="n">
-        <v>-10.14492753623188</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L26" t="n">
         <v>657.3</v>
@@ -1613,7 +1635,7 @@
         <v>84</v>
       </c>
       <c r="K27" t="n">
-        <v>7.936507936507936</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L27" t="n">
         <v>656.5</v>
@@ -1662,7 +1684,7 @@
         <v>89</v>
       </c>
       <c r="K28" t="n">
-        <v>1.492537313432836</v>
+        <v>-31.25</v>
       </c>
       <c r="L28" t="n">
         <v>655.2</v>
@@ -1711,7 +1733,7 @@
         <v>89</v>
       </c>
       <c r="K29" t="n">
-        <v>-15.78947368421053</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L29" t="n">
         <v>654.2</v>
@@ -1760,7 +1782,7 @@
         <v>89</v>
       </c>
       <c r="K30" t="n">
-        <v>-37.5</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L30" t="n">
         <v>653.3</v>
@@ -1809,7 +1831,7 @@
         <v>95</v>
       </c>
       <c r="K31" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L31" t="n">
         <v>653.5</v>
@@ -1860,7 +1882,7 @@
         <v>108</v>
       </c>
       <c r="K32" t="n">
-        <v>-36.36363636363637</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L32" t="n">
         <v>651.6</v>
@@ -1911,7 +1933,7 @@
         <v>111</v>
       </c>
       <c r="K33" t="n">
-        <v>-28.35820895522388</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>650.4</v>
@@ -1962,7 +1984,7 @@
         <v>114</v>
       </c>
       <c r="K34" t="n">
-        <v>-22.85714285714286</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L34" t="n">
         <v>649.5</v>
@@ -2013,7 +2035,7 @@
         <v>117</v>
       </c>
       <c r="K35" t="n">
-        <v>-22.85714285714286</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L35" t="n">
         <v>648.7</v>
@@ -2064,7 +2086,7 @@
         <v>118</v>
       </c>
       <c r="K36" t="n">
-        <v>-31.34328358208955</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L36" t="n">
         <v>648</v>
@@ -2115,7 +2137,7 @@
         <v>131</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.493506493506493</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L37" t="n">
         <v>648.3</v>
@@ -2166,7 +2188,7 @@
         <v>137</v>
       </c>
       <c r="K38" t="n">
-        <v>-13.25301204819277</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L38" t="n">
         <v>648.5</v>
@@ -2217,7 +2239,7 @@
         <v>144</v>
       </c>
       <c r="K39" t="n">
-        <v>-1.149425287356322</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="L39" t="n">
         <v>649.4</v>
@@ -2268,7 +2290,7 @@
         <v>150</v>
       </c>
       <c r="K40" t="n">
-        <v>6.521739130434782</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="L40" t="n">
         <v>650.9</v>
@@ -2319,7 +2341,7 @@
         <v>152</v>
       </c>
       <c r="K41" t="n">
-        <v>14.60674157303371</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L41" t="n">
         <v>652</v>
@@ -2370,7 +2392,7 @@
         <v>153</v>
       </c>
       <c r="K42" t="n">
-        <v>4.878048780487805</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="L42" t="n">
         <v>654.3</v>
@@ -2421,7 +2443,7 @@
         <v>154</v>
       </c>
       <c r="K43" t="n">
-        <v>11.39240506329114</v>
+        <v>45</v>
       </c>
       <c r="L43" t="n">
         <v>656.4</v>
@@ -2472,7 +2494,7 @@
         <v>162</v>
       </c>
       <c r="K44" t="n">
-        <v>1.149425287356322</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="L44" t="n">
         <v>657.4</v>
@@ -2523,7 +2545,7 @@
         <v>166</v>
       </c>
       <c r="K45" t="n">
-        <v>10.3448275862069</v>
+        <v>37.5</v>
       </c>
       <c r="L45" t="n">
         <v>659.1</v>
@@ -2574,7 +2596,7 @@
         <v>169</v>
       </c>
       <c r="K46" t="n">
-        <v>15.90909090909091</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L46" t="n">
         <v>661.2</v>
@@ -2625,7 +2647,7 @@
         <v>178</v>
       </c>
       <c r="K47" t="n">
-        <v>2.127659574468085</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L47" t="n">
         <v>661.1</v>
@@ -2676,7 +2698,7 @@
         <v>182</v>
       </c>
       <c r="K48" t="n">
-        <v>3.225806451612903</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L48" t="n">
         <v>661.2</v>
@@ -2727,7 +2749,7 @@
         <v>183</v>
       </c>
       <c r="K49" t="n">
-        <v>4.25531914893617</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>660.7</v>
@@ -2778,7 +2800,7 @@
         <v>186</v>
       </c>
       <c r="K50" t="n">
-        <v>1.030927835051546</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L50" t="n">
         <v>659.3</v>
@@ -2829,7 +2851,7 @@
         <v>190</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.473684210526317</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L51" t="n">
         <v>657.3</v>
@@ -2880,7 +2902,7 @@
         <v>194</v>
       </c>
       <c r="K52" t="n">
-        <v>9.302325581395349</v>
+        <v>-40</v>
       </c>
       <c r="L52" t="n">
         <v>655.8</v>
@@ -2931,7 +2953,7 @@
         <v>194</v>
       </c>
       <c r="K53" t="n">
-        <v>6.024096385542169</v>
+        <v>-25</v>
       </c>
       <c r="L53" t="n">
         <v>654.2</v>
@@ -2982,7 +3004,7 @@
         <v>194</v>
       </c>
       <c r="K54" t="n">
-        <v>2.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L54" t="n">
         <v>653.4</v>
@@ -3033,7 +3055,7 @@
         <v>199</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L55" t="n">
         <v>651.7</v>
@@ -3084,7 +3106,7 @@
         <v>199</v>
       </c>
       <c r="K56" t="n">
-        <v>1.234567901234568</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L56" t="n">
         <v>649.7</v>
@@ -3135,7 +3157,7 @@
         <v>199</v>
       </c>
       <c r="K57" t="n">
-        <v>-17.64705882352941</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L57" t="n">
         <v>648.6</v>
@@ -3186,7 +3208,7 @@
         <v>202</v>
       </c>
       <c r="K58" t="n">
-        <v>-4.615384615384616</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L58" t="n">
         <v>648.2</v>
@@ -3237,7 +3259,7 @@
         <v>205</v>
       </c>
       <c r="K59" t="n">
-        <v>-21.31147540983606</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L59" t="n">
         <v>647.4</v>
@@ -3288,7 +3310,7 @@
         <v>210</v>
       </c>
       <c r="K60" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="L60" t="n">
         <v>646.4</v>
@@ -3339,7 +3361,7 @@
         <v>218</v>
       </c>
       <c r="K61" t="n">
-        <v>-27.27272727272727</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L61" t="n">
         <v>646.6</v>
@@ -3390,7 +3412,7 @@
         <v>218</v>
       </c>
       <c r="K62" t="n">
-        <v>-26.15384615384616</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L62" t="n">
         <v>646.4</v>
@@ -3441,7 +3463,7 @@
         <v>229</v>
       </c>
       <c r="K63" t="n">
-        <v>-9.333333333333334</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L63" t="n">
         <v>647.3</v>
@@ -3492,7 +3514,7 @@
         <v>230</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L64" t="n">
         <v>648.1</v>
@@ -3543,7 +3565,7 @@
         <v>231</v>
       </c>
       <c r="K65" t="n">
-        <v>-4.615384615384616</v>
+        <v>43.75</v>
       </c>
       <c r="L65" t="n">
         <v>649.5</v>
@@ -3594,7 +3616,7 @@
         <v>231</v>
       </c>
       <c r="K66" t="n">
-        <v>-9.67741935483871</v>
+        <v>43.75</v>
       </c>
       <c r="L66" t="n">
         <v>650.9</v>
@@ -3645,7 +3667,7 @@
         <v>235</v>
       </c>
       <c r="K67" t="n">
-        <v>12.28070175438596</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L67" t="n">
         <v>652.7</v>
@@ -3696,7 +3718,7 @@
         <v>238</v>
       </c>
       <c r="K68" t="n">
-        <v>14.28571428571428</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L68" t="n">
         <v>653.9</v>
@@ -3747,7 +3769,7 @@
         <v>242</v>
       </c>
       <c r="K69" t="n">
-        <v>18.64406779661017</v>
+        <v>75</v>
       </c>
       <c r="L69" t="n">
         <v>655.8</v>
@@ -3798,7 +3820,7 @@
         <v>246</v>
       </c>
       <c r="K70" t="n">
-        <v>16.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L70" t="n">
         <v>657.8</v>
@@ -3849,7 +3871,7 @@
         <v>267</v>
       </c>
       <c r="K71" t="n">
-        <v>-9.090909090909092</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L71" t="n">
         <v>656.9</v>
@@ -3900,7 +3922,7 @@
         <v>289</v>
       </c>
       <c r="K72" t="n">
-        <v>11.57894736842105</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L72" t="n">
         <v>658.2</v>
@@ -3951,7 +3973,7 @@
         <v>298</v>
       </c>
       <c r="K73" t="n">
-        <v>1.923076923076923</v>
+        <v>-8.823529411764707</v>
       </c>
       <c r="L73" t="n">
         <v>657.5</v>
@@ -4002,7 +4024,7 @@
         <v>300</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L74" t="n">
         <v>656.7</v>
@@ -4053,7 +4075,7 @@
         <v>303</v>
       </c>
       <c r="K75" t="n">
-        <v>1.923076923076923</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L75" t="n">
         <v>655.5</v>
@@ -4104,7 +4126,7 @@
         <v>304</v>
       </c>
       <c r="K76" t="n">
-        <v>2.857142857142857</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L76" t="n">
         <v>654.4</v>
@@ -4155,7 +4177,7 @@
         <v>311</v>
       </c>
       <c r="K77" t="n">
-        <v>-3.571428571428571</v>
+        <v>-26.02739726027397</v>
       </c>
       <c r="L77" t="n">
         <v>652.2</v>
@@ -4206,7 +4228,7 @@
         <v>313</v>
       </c>
       <c r="K78" t="n">
-        <v>-8.108108108108109</v>
+        <v>-35.2112676056338</v>
       </c>
       <c r="L78" t="n">
         <v>650.1</v>
@@ -4257,7 +4279,7 @@
         <v>321</v>
       </c>
       <c r="K79" t="n">
-        <v>-12.06896551724138</v>
+        <v>-38.66666666666666</v>
       </c>
       <c r="L79" t="n">
         <v>646.8</v>
@@ -4308,7 +4330,7 @@
         <v>331</v>
       </c>
       <c r="K80" t="n">
-        <v>0.8264462809917356</v>
+        <v>3.125</v>
       </c>
       <c r="L80" t="n">
         <v>644.9</v>
@@ -4359,7 +4381,7 @@
         <v>331</v>
       </c>
       <c r="K81" t="n">
-        <v>-6.194690265486726</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L81" t="n">
         <v>645.1</v>
@@ -4410,7 +4432,7 @@
         <v>334</v>
       </c>
       <c r="K82" t="n">
-        <v>-8.620689655172415</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L82" t="n">
         <v>642.8</v>
@@ -4461,7 +4483,7 @@
         <v>339</v>
       </c>
       <c r="K83" t="n">
-        <v>-23.63636363636364</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="L83" t="n">
         <v>640.9</v>
@@ -4512,7 +4534,7 @@
         <v>339</v>
       </c>
       <c r="K84" t="n">
-        <v>-22.93577981651376</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L84" t="n">
         <v>639.2</v>
@@ -4563,7 +4585,7 @@
         <v>340</v>
       </c>
       <c r="K85" t="n">
-        <v>-22.93577981651376</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L85" t="n">
         <v>637.9</v>
@@ -4614,7 +4636,7 @@
         <v>340</v>
       </c>
       <c r="K86" t="n">
-        <v>-22.93577981651376</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L86" t="n">
         <v>636.5</v>
@@ -4665,7 +4687,7 @@
         <v>349</v>
       </c>
       <c r="K87" t="n">
-        <v>-17.5438596491228</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L87" t="n">
         <v>636.7</v>
@@ -4716,7 +4738,7 @@
         <v>350</v>
       </c>
       <c r="K88" t="n">
-        <v>-14.28571428571428</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L88" t="n">
         <v>637.2</v>
@@ -4767,7 +4789,7 @@
         <v>350</v>
       </c>
       <c r="K89" t="n">
-        <v>-18.51851851851852</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L89" t="n">
         <v>638.5</v>
@@ -4818,7 +4840,7 @@
         <v>360</v>
       </c>
       <c r="K90" t="n">
-        <v>-22.80701754385965</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L90" t="n">
         <v>637.8</v>
@@ -4869,7 +4891,7 @@
         <v>362</v>
       </c>
       <c r="K91" t="n">
-        <v>-3.157894736842105</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L91" t="n">
         <v>637.3</v>
@@ -4920,7 +4942,7 @@
         <v>364</v>
       </c>
       <c r="K92" t="n">
-        <v>-36</v>
+        <v>4</v>
       </c>
       <c r="L92" t="n">
         <v>636.9</v>
@@ -4971,7 +4993,7 @@
         <v>364</v>
       </c>
       <c r="K93" t="n">
-        <v>-27.27272727272727</v>
+        <v>4</v>
       </c>
       <c r="L93" t="n">
         <v>637</v>
@@ -5022,7 +5044,7 @@
         <v>364</v>
       </c>
       <c r="K94" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>637.1</v>
@@ -5073,7 +5095,7 @@
         <v>365</v>
       </c>
       <c r="K95" t="n">
-        <v>-22.58064516129032</v>
+        <v>-4</v>
       </c>
       <c r="L95" t="n">
         <v>637</v>
@@ -5124,7 +5146,7 @@
         <v>365</v>
       </c>
       <c r="K96" t="n">
-        <v>-24.59016393442623</v>
+        <v>-62.5</v>
       </c>
       <c r="L96" t="n">
         <v>636.9</v>
@@ -5175,7 +5197,7 @@
         <v>366</v>
       </c>
       <c r="K97" t="n">
-        <v>-16.36363636363636</v>
+        <v>-75</v>
       </c>
       <c r="L97" t="n">
         <v>635.8</v>
@@ -5226,7 +5248,7 @@
         <v>371</v>
       </c>
       <c r="K98" t="n">
-        <v>-20.68965517241379</v>
+        <v>-80.95238095238095</v>
       </c>
       <c r="L98" t="n">
         <v>634.1</v>
@@ -5277,7 +5299,7 @@
         <v>378</v>
       </c>
       <c r="K99" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>633.1</v>
@@ -5328,7 +5350,7 @@
         <v>381</v>
       </c>
       <c r="K100" t="n">
-        <v>-20</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L100" t="n">
         <v>632.8</v>
@@ -5379,7 +5401,7 @@
         <v>383</v>
       </c>
       <c r="K101" t="n">
-        <v>-15.38461538461539</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L101" t="n">
         <v>632.5</v>
@@ -5430,7 +5452,7 @@
         <v>384</v>
       </c>
       <c r="K102" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>632.5</v>
@@ -5481,7 +5503,7 @@
         <v>390</v>
       </c>
       <c r="K103" t="n">
-        <v>13.72549019607843</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L103" t="n">
         <v>633.1</v>
@@ -5532,7 +5554,7 @@
         <v>392</v>
       </c>
       <c r="K104" t="n">
-        <v>9.433962264150944</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L104" t="n">
         <v>633.5</v>
@@ -5583,7 +5605,7 @@
         <v>392</v>
       </c>
       <c r="K105" t="n">
-        <v>7.692307692307693</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L105" t="n">
         <v>634</v>
@@ -5634,7 +5656,7 @@
         <v>393</v>
       </c>
       <c r="K106" t="n">
-        <v>9.433962264150944</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L106" t="n">
         <v>634.6</v>
@@ -5685,7 +5707,7 @@
         <v>393</v>
       </c>
       <c r="K107" t="n">
-        <v>-9.090909090909092</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L107" t="n">
         <v>635.3</v>
@@ -5736,7 +5758,7 @@
         <v>394</v>
       </c>
       <c r="K108" t="n">
-        <v>-13.63636363636363</v>
+        <v>25</v>
       </c>
       <c r="L108" t="n">
         <v>636.4</v>
@@ -5787,7 +5809,7 @@
         <v>395</v>
       </c>
       <c r="K109" t="n">
-        <v>-15.55555555555556</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L109" t="n">
         <v>636.7</v>
@@ -5838,7 +5860,7 @@
         <v>404</v>
       </c>
       <c r="K110" t="n">
-        <v>-13.63636363636363</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L110" t="n">
         <v>636.4</v>
@@ -5889,7 +5911,7 @@
         <v>406</v>
       </c>
       <c r="K111" t="n">
-        <v>-13.63636363636363</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L111" t="n">
         <v>636.1</v>
@@ -5940,7 +5962,7 @@
         <v>411</v>
       </c>
       <c r="K112" t="n">
-        <v>2.127659574468085</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L112" t="n">
         <v>636.2</v>
@@ -5991,7 +6013,7 @@
         <v>412</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L113" t="n">
         <v>635.6</v>
@@ -6042,7 +6064,7 @@
         <v>413</v>
       </c>
       <c r="K114" t="n">
-        <v>2.040816326530612</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L114" t="n">
         <v>635.3</v>
@@ -6093,7 +6115,7 @@
         <v>415</v>
       </c>
       <c r="K115" t="n">
-        <v>8</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L115" t="n">
         <v>635.2</v>
@@ -6144,7 +6166,7 @@
         <v>415</v>
       </c>
       <c r="K116" t="n">
-        <v>8</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L116" t="n">
         <v>635</v>
@@ -6195,7 +6217,7 @@
         <v>416</v>
       </c>
       <c r="K117" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>634.9</v>
@@ -6246,7 +6268,7 @@
         <v>418</v>
       </c>
       <c r="K118" t="n">
-        <v>27.65957446808511</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L118" t="n">
         <v>635.1</v>
@@ -6297,7 +6319,7 @@
         <v>423</v>
       </c>
       <c r="K119" t="n">
-        <v>2.222222222222222</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L119" t="n">
         <v>634.9</v>
@@ -6348,7 +6370,7 @@
         <v>429</v>
       </c>
       <c r="K120" t="n">
-        <v>20.83333333333334</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L120" t="n">
         <v>636.2</v>
@@ -6399,7 +6421,7 @@
         <v>429</v>
       </c>
       <c r="K121" t="n">
-        <v>17.39130434782609</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>637.3</v>
@@ -6450,7 +6472,7 @@
         <v>431</v>
       </c>
       <c r="K122" t="n">
-        <v>19.14893617021277</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L122" t="n">
         <v>638.1</v>
@@ -6501,7 +6523,7 @@
         <v>433</v>
       </c>
       <c r="K123" t="n">
-        <v>11.62790697674419</v>
+        <v>50</v>
       </c>
       <c r="L123" t="n">
         <v>639.2</v>
@@ -6552,7 +6574,7 @@
         <v>442</v>
       </c>
       <c r="K124" t="n">
-        <v>-4</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L124" t="n">
         <v>639.3</v>
@@ -6603,7 +6625,7 @@
         <v>450</v>
       </c>
       <c r="K125" t="n">
-        <v>10.3448275862069</v>
+        <v>20</v>
       </c>
       <c r="L125" t="n">
         <v>640</v>
@@ -6654,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="K126" t="n">
-        <v>6.896551724137931</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L126" t="n">
         <v>640.6</v>
@@ -6705,7 +6727,7 @@
         <v>453</v>
       </c>
       <c r="K127" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L127" t="n">
         <v>641.3</v>
@@ -6756,7 +6778,7 @@
         <v>453</v>
       </c>
       <c r="K128" t="n">
-        <v>11.86440677966102</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>641.8</v>
@@ -6807,7 +6829,7 @@
         <v>460</v>
       </c>
       <c r="K129" t="n">
-        <v>1.538461538461539</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L129" t="n">
         <v>642.1</v>
@@ -6858,7 +6880,7 @@
         <v>465</v>
       </c>
       <c r="K130" t="n">
-        <v>24.59016393442623</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L130" t="n">
         <v>642.3</v>
@@ -6909,7 +6931,7 @@
         <v>468</v>
       </c>
       <c r="K131" t="n">
-        <v>16.12903225806452</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L131" t="n">
         <v>642.2</v>
@@ -6960,7 +6982,7 @@
         <v>473</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L132" t="n">
         <v>641.4</v>
@@ -7011,7 +7033,7 @@
         <v>473</v>
       </c>
       <c r="K133" t="n">
-        <v>1.639344262295082</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L133" t="n">
         <v>640.4</v>
@@ -7062,7 +7084,7 @@
         <v>476</v>
       </c>
       <c r="K134" t="n">
-        <v>4.761904761904762</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L134" t="n">
         <v>640.6</v>
@@ -7113,7 +7135,7 @@
         <v>480</v>
       </c>
       <c r="K135" t="n">
-        <v>-4.615384615384616</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L135" t="n">
         <v>639.6</v>
@@ -7164,7 +7186,7 @@
         <v>484</v>
       </c>
       <c r="K136" t="n">
-        <v>1.449275362318841</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L136" t="n">
         <v>639.1</v>
@@ -7215,7 +7237,7 @@
         <v>484</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L137" t="n">
         <v>638.4</v>
@@ -7266,7 +7288,7 @@
         <v>484</v>
       </c>
       <c r="K138" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>637.7</v>
@@ -7317,7 +7339,7 @@
         <v>484</v>
       </c>
       <c r="K139" t="n">
-        <v>4.918032786885246</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L139" t="n">
         <v>637.7</v>
@@ -7368,7 +7390,7 @@
         <v>489</v>
       </c>
       <c r="K140" t="n">
-        <v>-13.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>636.7</v>
@@ -7419,7 +7441,7 @@
         <v>493</v>
       </c>
       <c r="K141" t="n">
-        <v>-6.25</v>
+        <v>10</v>
       </c>
       <c r="L141" t="n">
         <v>636.4</v>
@@ -7470,7 +7492,7 @@
         <v>493</v>
       </c>
       <c r="K142" t="n">
-        <v>-9.67741935483871</v>
+        <v>10</v>
       </c>
       <c r="L142" t="n">
         <v>636.6</v>
@@ -7521,7 +7543,7 @@
         <v>498</v>
       </c>
       <c r="K143" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L143" t="n">
         <v>636.3</v>
@@ -7572,7 +7594,7 @@
         <v>504</v>
       </c>
       <c r="K144" t="n">
-        <v>3.225806451612903</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L144" t="n">
         <v>636.3</v>
@@ -7623,7 +7645,7 @@
         <v>504</v>
       </c>
       <c r="K145" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>636.7</v>
@@ -7674,7 +7696,7 @@
         <v>509</v>
       </c>
       <c r="K146" t="n">
-        <v>-17.24137931034483</v>
+        <v>-20</v>
       </c>
       <c r="L146" t="n">
         <v>636.2</v>
@@ -7725,7 +7747,7 @@
         <v>510</v>
       </c>
       <c r="K147" t="n">
-        <v>-22.80701754385965</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L147" t="n">
         <v>635.6</v>
@@ -7776,7 +7798,7 @@
         <v>511</v>
       </c>
       <c r="K148" t="n">
-        <v>-24.13793103448276</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L148" t="n">
         <v>634.9</v>
@@ -7827,7 +7849,7 @@
         <v>515</v>
       </c>
       <c r="K149" t="n">
-        <v>-5.454545454545454</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L149" t="n">
         <v>634.6</v>
@@ -7878,7 +7900,7 @@
         <v>515</v>
       </c>
       <c r="K150" t="n">
-        <v>-16</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L150" t="n">
         <v>634.8</v>
@@ -7929,7 +7951,7 @@
         <v>516</v>
       </c>
       <c r="K151" t="n">
-        <v>-12.5</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L151" t="n">
         <v>634.5</v>
@@ -7980,7 +8002,7 @@
         <v>519</v>
       </c>
       <c r="K152" t="n">
-        <v>-8.695652173913043</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L152" t="n">
         <v>633.9</v>
@@ -8031,7 +8053,7 @@
         <v>523</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L153" t="n">
         <v>634.2</v>
@@ -8082,7 +8104,7 @@
         <v>529</v>
       </c>
       <c r="K154" t="n">
-        <v>-16.9811320754717</v>
+        <v>-36</v>
       </c>
       <c r="L154" t="n">
         <v>633.3</v>
@@ -8133,7 +8155,7 @@
         <v>533</v>
       </c>
       <c r="K155" t="n">
-        <v>-1.886792452830189</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>632.8</v>
@@ -8184,7 +8206,7 @@
         <v>534</v>
       </c>
       <c r="K156" t="n">
-        <v>-8</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L156" t="n">
         <v>632.9</v>
@@ -8235,7 +8257,7 @@
         <v>539</v>
       </c>
       <c r="K157" t="n">
-        <v>-16.36363636363636</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L157" t="n">
         <v>632.6</v>
@@ -8286,7 +8308,7 @@
         <v>540</v>
       </c>
       <c r="K158" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L158" t="n">
         <v>632.5</v>
@@ -8337,7 +8359,7 @@
         <v>545</v>
       </c>
       <c r="K159" t="n">
-        <v>-4.918032786885246</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>632.5</v>
@@ -8388,7 +8410,7 @@
         <v>546</v>
       </c>
       <c r="K160" t="n">
-        <v>1.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>632.4</v>
@@ -8439,7 +8461,7 @@
         <v>551</v>
       </c>
       <c r="K161" t="n">
-        <v>-13.79310344827586</v>
+        <v>-6.25</v>
       </c>
       <c r="L161" t="n">
         <v>631.9</v>
@@ -8490,7 +8512,7 @@
         <v>551</v>
       </c>
       <c r="K162" t="n">
-        <v>-13.79310344827586</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L162" t="n">
         <v>631.7</v>
@@ -8541,7 +8563,7 @@
         <v>551</v>
       </c>
       <c r="K163" t="n">
-        <v>-5.660377358490567</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>631.1</v>
@@ -8592,7 +8614,7 @@
         <v>556</v>
       </c>
       <c r="K164" t="n">
-        <v>-7.692307692307693</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L164" t="n">
         <v>631.6</v>
@@ -8643,7 +8665,7 @@
         <v>558</v>
       </c>
       <c r="K165" t="n">
-        <v>-11.11111111111111</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L165" t="n">
         <v>631.5</v>
@@ -8694,7 +8716,7 @@
         <v>562</v>
       </c>
       <c r="K166" t="n">
-        <v>-9.433962264150944</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L166" t="n">
         <v>630.9</v>
@@ -8745,7 +8767,7 @@
         <v>562</v>
       </c>
       <c r="K167" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L167" t="n">
         <v>630.8</v>
@@ -8796,7 +8818,7 @@
         <v>570</v>
       </c>
       <c r="K168" t="n">
-        <v>-18.64406779661017</v>
+        <v>-60</v>
       </c>
       <c r="L168" t="n">
         <v>629.8</v>
@@ -8847,7 +8869,7 @@
         <v>574</v>
       </c>
       <c r="K169" t="n">
-        <v>-18.64406779661017</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L169" t="n">
         <v>628.7</v>
@@ -8898,7 +8920,7 @@
         <v>574</v>
       </c>
       <c r="K170" t="n">
-        <v>-18.64406779661017</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L170" t="n">
         <v>627.7</v>
@@ -8949,7 +8971,7 @@
         <v>574</v>
       </c>
       <c r="K171" t="n">
-        <v>-17.24137931034483</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L171" t="n">
         <v>627.2</v>
@@ -9000,7 +9022,7 @@
         <v>575</v>
       </c>
       <c r="K172" t="n">
-        <v>-10.71428571428571</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L172" t="n">
         <v>626.8</v>
@@ -9051,7 +9073,7 @@
         <v>581</v>
       </c>
       <c r="K173" t="n">
-        <v>-27.58620689655172</v>
+        <v>-60</v>
       </c>
       <c r="L173" t="n">
         <v>625.8</v>
@@ -9102,7 +9124,7 @@
         <v>583</v>
       </c>
       <c r="K174" t="n">
-        <v>-14.81481481481481</v>
+        <v>-44</v>
       </c>
       <c r="L174" t="n">
         <v>624.5</v>
@@ -9153,7 +9175,7 @@
         <v>586</v>
       </c>
       <c r="K175" t="n">
-        <v>-16.9811320754717</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L175" t="n">
         <v>623.7</v>
@@ -9204,7 +9226,7 @@
         <v>589</v>
       </c>
       <c r="K176" t="n">
-        <v>-23.63636363636364</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L176" t="n">
         <v>623</v>
@@ -9255,7 +9277,7 @@
         <v>590</v>
       </c>
       <c r="K177" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>622.2</v>
@@ -9357,7 +9379,7 @@
         <v>594</v>
       </c>
       <c r="K179" t="n">
-        <v>-22.44897959183674</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>622.3</v>
@@ -9408,7 +9430,7 @@
         <v>595</v>
       </c>
       <c r="K180" t="n">
-        <v>-22.44897959183674</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L180" t="n">
         <v>622.2</v>
@@ -9459,7 +9481,7 @@
         <v>597</v>
       </c>
       <c r="K181" t="n">
-        <v>-8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>622.3</v>
@@ -9510,7 +9532,7 @@
         <v>600</v>
       </c>
       <c r="K182" t="n">
-        <v>-2.040816326530612</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L182" t="n">
         <v>622.6</v>
@@ -9561,7 +9583,7 @@
         <v>600</v>
       </c>
       <c r="K183" t="n">
-        <v>-2.040816326530612</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L183" t="n">
         <v>623.5</v>
@@ -9612,7 +9634,7 @@
         <v>604</v>
       </c>
       <c r="K184" t="n">
-        <v>-20.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>623.8</v>
@@ -9663,7 +9685,7 @@
         <v>608</v>
       </c>
       <c r="K185" t="n">
-        <v>-24</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L185" t="n">
         <v>623.4</v>
@@ -9714,7 +9736,7 @@
         <v>609</v>
       </c>
       <c r="K186" t="n">
-        <v>-14.8936170212766</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L186" t="n">
         <v>623.4</v>
@@ -9765,7 +9787,7 @@
         <v>619</v>
       </c>
       <c r="K187" t="n">
-        <v>5.263157894736842</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L187" t="n">
         <v>624.5</v>
@@ -9816,7 +9838,7 @@
         <v>629</v>
       </c>
       <c r="K188" t="n">
-        <v>1.694915254237288</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L188" t="n">
         <v>624.5</v>
@@ -9867,7 +9889,7 @@
         <v>635</v>
       </c>
       <c r="K189" t="n">
-        <v>4.918032786885246</v>
+        <v>10</v>
       </c>
       <c r="L189" t="n">
         <v>624.8</v>
@@ -9918,7 +9940,7 @@
         <v>641</v>
       </c>
       <c r="K190" t="n">
-        <v>-4.477611940298507</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L190" t="n">
         <v>624.6</v>
@@ -9969,7 +9991,7 @@
         <v>650</v>
       </c>
       <c r="K191" t="n">
-        <v>7.894736842105263</v>
+        <v>4</v>
       </c>
       <c r="L191" t="n">
         <v>625.1</v>
@@ -10020,7 +10042,7 @@
         <v>651</v>
       </c>
       <c r="K192" t="n">
-        <v>7.894736842105263</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L192" t="n">
         <v>625.4</v>
@@ -10071,7 +10093,7 @@
         <v>662</v>
       </c>
       <c r="K193" t="n">
-        <v>1.234567901234568</v>
+        <v>-6.896551724137931</v>
       </c>
       <c r="L193" t="n">
         <v>624.6</v>
@@ -10122,7 +10144,7 @@
         <v>662</v>
       </c>
       <c r="K194" t="n">
-        <v>-1.265822784810127</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>624.2</v>
@@ -10173,7 +10195,7 @@
         <v>666</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L195" t="n">
         <v>624.6</v>
@@ -10224,7 +10246,7 @@
         <v>666</v>
       </c>
       <c r="K196" t="n">
-        <v>3.896103896103896</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L196" t="n">
         <v>624.9</v>
@@ -10275,7 +10297,7 @@
         <v>669</v>
       </c>
       <c r="K197" t="n">
-        <v>1.265822784810127</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>623.9</v>
@@ -10326,7 +10348,7 @@
         <v>670</v>
       </c>
       <c r="K198" t="n">
-        <v>-1.265822784810127</v>
+        <v>-20</v>
       </c>
       <c r="L198" t="n">
         <v>623.8</v>
@@ -10377,7 +10399,7 @@
         <v>671</v>
       </c>
       <c r="K199" t="n">
-        <v>-3.896103896103896</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>623.2</v>
@@ -10428,7 +10450,7 @@
         <v>675</v>
       </c>
       <c r="K200" t="n">
-        <v>2.5</v>
+        <v>-20</v>
       </c>
       <c r="L200" t="n">
         <v>623.6</v>
@@ -10479,7 +10501,7 @@
         <v>676</v>
       </c>
       <c r="K201" t="n">
-        <v>1.265822784810127</v>
+        <v>-20</v>
       </c>
       <c r="L201" t="n">
         <v>623.2</v>
@@ -10530,7 +10552,7 @@
         <v>677</v>
       </c>
       <c r="K202" t="n">
-        <v>-3.896103896103896</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>622.6</v>
@@ -10581,7 +10603,7 @@
         <v>677</v>
       </c>
       <c r="K203" t="n">
-        <v>-3.896103896103896</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L203" t="n">
         <v>623.1</v>
@@ -10632,7 +10654,7 @@
         <v>681</v>
       </c>
       <c r="K204" t="n">
-        <v>6.493506493506493</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L204" t="n">
         <v>624</v>
@@ -10683,7 +10705,7 @@
         <v>684</v>
       </c>
       <c r="K205" t="n">
-        <v>7.894736842105263</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L205" t="n">
         <v>624.2</v>
@@ -10734,7 +10756,7 @@
         <v>690</v>
       </c>
       <c r="K206" t="n">
-        <v>-1.234567901234568</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L206" t="n">
         <v>623.8</v>
@@ -10785,7 +10807,7 @@
         <v>696</v>
       </c>
       <c r="K207" t="n">
-        <v>-6.493506493506493</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L207" t="n">
         <v>624.3</v>
@@ -10836,7 +10858,7 @@
         <v>696</v>
       </c>
       <c r="K208" t="n">
-        <v>7.462686567164178</v>
+        <v>20</v>
       </c>
       <c r="L208" t="n">
         <v>624.9</v>
@@ -10887,7 +10909,7 @@
         <v>697</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L209" t="n">
         <v>625.5</v>
@@ -10938,7 +10960,7 @@
         <v>701</v>
       </c>
       <c r="K210" t="n">
-        <v>3.333333333333333</v>
+        <v>-12</v>
       </c>
       <c r="L210" t="n">
         <v>625.3</v>
@@ -10989,7 +11011,7 @@
         <v>703</v>
       </c>
       <c r="K211" t="n">
-        <v>-16.9811320754717</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L211" t="n">
         <v>624.8</v>
@@ -11040,7 +11062,7 @@
         <v>704</v>
       </c>
       <c r="K212" t="n">
-        <v>-20.75471698113208</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L212" t="n">
         <v>624.3</v>
@@ -11091,7 +11113,7 @@
         <v>707</v>
       </c>
       <c r="K213" t="n">
-        <v>-6.666666666666667</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L213" t="n">
         <v>623.5</v>
@@ -11142,7 +11164,7 @@
         <v>714</v>
       </c>
       <c r="K214" t="n">
-        <v>7.692307692307693</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L214" t="n">
         <v>623</v>
@@ -11193,7 +11215,7 @@
         <v>716</v>
       </c>
       <c r="K215" t="n">
-        <v>4</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L215" t="n">
         <v>623</v>
@@ -11244,7 +11266,7 @@
         <v>716</v>
       </c>
       <c r="K216" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>623.6</v>
@@ -11295,7 +11317,7 @@
         <v>717</v>
       </c>
       <c r="K217" t="n">
-        <v>12.5</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L217" t="n">
         <v>623.7</v>
@@ -11346,7 +11368,7 @@
         <v>719</v>
       </c>
       <c r="K218" t="n">
-        <v>10.20408163265306</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L218" t="n">
         <v>623.6</v>
@@ -11397,7 +11419,7 @@
         <v>720</v>
       </c>
       <c r="K219" t="n">
-        <v>10.20408163265306</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L219" t="n">
         <v>623.5</v>
@@ -11448,7 +11470,7 @@
         <v>723</v>
       </c>
       <c r="K220" t="n">
-        <v>-4.166666666666666</v>
+        <v>10</v>
       </c>
       <c r="L220" t="n">
         <v>623.5</v>
@@ -11499,7 +11521,7 @@
         <v>726</v>
       </c>
       <c r="K221" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L221" t="n">
         <v>624</v>
@@ -11550,7 +11572,7 @@
         <v>728</v>
       </c>
       <c r="K222" t="n">
-        <v>-1.96078431372549</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>624.4</v>
@@ -11601,7 +11623,7 @@
         <v>729</v>
       </c>
       <c r="K223" t="n">
-        <v>-3.846153846153846</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L223" t="n">
         <v>625</v>
@@ -11652,7 +11674,7 @@
         <v>731</v>
       </c>
       <c r="K224" t="n">
-        <v>-8</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L224" t="n">
         <v>625.1</v>
@@ -11703,7 +11725,7 @@
         <v>731</v>
       </c>
       <c r="K225" t="n">
-        <v>-2.127659574468085</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L225" t="n">
         <v>625</v>
@@ -11754,7 +11776,7 @@
         <v>732</v>
       </c>
       <c r="K226" t="n">
-        <v>9.523809523809524</v>
+        <v>-20</v>
       </c>
       <c r="L226" t="n">
         <v>624.8</v>
@@ -11805,7 +11827,7 @@
         <v>733</v>
       </c>
       <c r="K227" t="n">
-        <v>-8.108108108108109</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L227" t="n">
         <v>624.4</v>
@@ -11856,7 +11878,7 @@
         <v>734</v>
       </c>
       <c r="K228" t="n">
-        <v>-10.52631578947368</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L228" t="n">
         <v>624.1</v>
@@ -11907,7 +11929,7 @@
         <v>734</v>
       </c>
       <c r="K229" t="n">
-        <v>-13.51351351351351</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L229" t="n">
         <v>623.7</v>
@@ -11958,7 +11980,7 @@
         <v>736</v>
       </c>
       <c r="K230" t="n">
-        <v>2.857142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L230" t="n">
         <v>623.8</v>
@@ -12009,7 +12031,7 @@
         <v>737</v>
       </c>
       <c r="K231" t="n">
-        <v>11.76470588235294</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L231" t="n">
         <v>623.7</v>
@@ -12060,7 +12082,7 @@
         <v>738</v>
       </c>
       <c r="K232" t="n">
-        <v>11.76470588235294</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L232" t="n">
         <v>623.7</v>
@@ -12111,7 +12133,7 @@
         <v>740</v>
       </c>
       <c r="K233" t="n">
-        <v>15.15151515151515</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>623.6</v>
@@ -12162,7 +12184,7 @@
         <v>740</v>
       </c>
       <c r="K234" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>623.3</v>
@@ -12213,7 +12235,7 @@
         <v>741</v>
       </c>
       <c r="K235" t="n">
-        <v>-12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L235" t="n">
         <v>623.1</v>
@@ -12264,7 +12286,7 @@
         <v>743</v>
       </c>
       <c r="K236" t="n">
-        <v>-3.703703703703703</v>
+        <v>20</v>
       </c>
       <c r="L236" t="n">
         <v>623.2</v>
@@ -12315,7 +12337,7 @@
         <v>745</v>
       </c>
       <c r="K237" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L237" t="n">
         <v>623.2</v>
@@ -12366,7 +12388,7 @@
         <v>745</v>
       </c>
       <c r="K238" t="n">
-        <v>-7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L238" t="n">
         <v>623.3</v>
@@ -12417,7 +12439,7 @@
         <v>746</v>
       </c>
       <c r="K239" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>623.5</v>
@@ -12468,7 +12490,7 @@
         <v>749</v>
       </c>
       <c r="K240" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L240" t="n">
         <v>623.2</v>
@@ -12519,7 +12541,7 @@
         <v>751</v>
       </c>
       <c r="K241" t="n">
-        <v>-12</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L241" t="n">
         <v>623</v>
@@ -12570,7 +12592,7 @@
         <v>755</v>
       </c>
       <c r="K242" t="n">
-        <v>-18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L242" t="n">
         <v>622.5</v>
@@ -12621,7 +12643,7 @@
         <v>757</v>
       </c>
       <c r="K243" t="n">
-        <v>-7.142857142857142</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L243" t="n">
         <v>622.4</v>
@@ -12672,7 +12694,7 @@
         <v>757</v>
       </c>
       <c r="K244" t="n">
-        <v>-15.38461538461539</v>
+        <v>-12.5</v>
       </c>
       <c r="L244" t="n">
         <v>622.3</v>
@@ -12723,7 +12745,7 @@
         <v>757</v>
       </c>
       <c r="K245" t="n">
-        <v>-15.38461538461539</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L245" t="n">
         <v>622.1</v>
@@ -12774,7 +12796,7 @@
         <v>759</v>
       </c>
       <c r="K246" t="n">
-        <v>-18.51851851851852</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L246" t="n">
         <v>621.5</v>
@@ -12825,7 +12847,7 @@
         <v>759</v>
       </c>
       <c r="K247" t="n">
-        <v>-15.38461538461539</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L247" t="n">
         <v>621.1</v>
@@ -12876,7 +12898,7 @@
         <v>762</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="L248" t="n">
         <v>621</v>
@@ -12978,7 +13000,7 @@
         <v>765</v>
       </c>
       <c r="K250" t="n">
-        <v>-10.3448275862069</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L250" t="n">
         <v>620.6</v>
@@ -13029,7 +13051,7 @@
         <v>766</v>
       </c>
       <c r="K251" t="n">
-        <v>-10.3448275862069</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L251" t="n">
         <v>620.5</v>
@@ -13080,7 +13102,7 @@
         <v>768</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L252" t="n">
         <v>621</v>
@@ -13131,7 +13153,7 @@
         <v>768</v>
       </c>
       <c r="K253" t="n">
-        <v>7.142857142857142</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L253" t="n">
         <v>621.3</v>
@@ -13182,7 +13204,7 @@
         <v>772</v>
       </c>
       <c r="K254" t="n">
-        <v>-6.25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L254" t="n">
         <v>621.2</v>
@@ -13233,7 +13255,7 @@
         <v>773</v>
       </c>
       <c r="K255" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>621</v>
@@ -13284,7 +13306,7 @@
         <v>774</v>
       </c>
       <c r="K256" t="n">
-        <v>-16.12903225806452</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L256" t="n">
         <v>621.1</v>
@@ -13335,7 +13357,7 @@
         <v>775</v>
       </c>
       <c r="K257" t="n">
-        <v>-13.33333333333333</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L257" t="n">
         <v>621.1</v>
@@ -13386,7 +13408,7 @@
         <v>776</v>
       </c>
       <c r="K258" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>620.9</v>
@@ -13437,7 +13459,7 @@
         <v>778</v>
       </c>
       <c r="K259" t="n">
-        <v>-18.75</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L259" t="n">
         <v>620.7</v>
@@ -13488,7 +13510,7 @@
         <v>780</v>
       </c>
       <c r="K260" t="n">
-        <v>-16.12903225806452</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L260" t="n">
         <v>620.2</v>
@@ -13539,7 +13561,7 @@
         <v>786</v>
       </c>
       <c r="K261" t="n">
-        <v>-2.857142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L261" t="n">
         <v>620.2</v>
@@ -13590,7 +13612,7 @@
         <v>791</v>
       </c>
       <c r="K262" t="n">
-        <v>-5.555555555555555</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L262" t="n">
         <v>619.5</v>
@@ -13641,7 +13663,7 @@
         <v>794</v>
       </c>
       <c r="K263" t="n">
-        <v>-2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>619.1</v>
@@ -13692,7 +13714,7 @@
         <v>794</v>
       </c>
       <c r="K264" t="n">
-        <v>-2.702702702702703</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L264" t="n">
         <v>619.1</v>
@@ -13743,7 +13765,7 @@
         <v>795</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L265" t="n">
         <v>619.3</v>
@@ -13794,7 +13816,7 @@
         <v>796</v>
       </c>
       <c r="K266" t="n">
-        <v>2.702702702702703</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L266" t="n">
         <v>619.3</v>
@@ -13845,7 +13867,7 @@
         <v>796</v>
       </c>
       <c r="K267" t="n">
-        <v>2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L267" t="n">
         <v>619.4</v>
@@ -13896,7 +13918,7 @@
         <v>798</v>
       </c>
       <c r="K268" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>619.2</v>
@@ -13947,7 +13969,7 @@
         <v>799</v>
       </c>
       <c r="K269" t="n">
-        <v>-2.857142857142857</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L269" t="n">
         <v>619.3</v>
@@ -13998,7 +14020,7 @@
         <v>800</v>
       </c>
       <c r="K270" t="n">
-        <v>-8.571428571428571</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L270" t="n">
         <v>619.5</v>
@@ -14049,7 +14071,7 @@
         <v>803</v>
       </c>
       <c r="K271" t="n">
-        <v>-2.702702702702703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>619.4</v>
@@ -14100,7 +14122,7 @@
         <v>806</v>
       </c>
       <c r="K272" t="n">
-        <v>-15.78947368421053</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L272" t="n">
         <v>619.5</v>
@@ -14151,7 +14173,7 @@
         <v>807</v>
       </c>
       <c r="K273" t="n">
-        <v>-12.82051282051282</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L273" t="n">
         <v>619.4</v>
@@ -14202,7 +14224,7 @@
         <v>807</v>
       </c>
       <c r="K274" t="n">
-        <v>-2.857142857142857</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L274" t="n">
         <v>619.3</v>
@@ -14253,7 +14275,7 @@
         <v>808</v>
       </c>
       <c r="K275" t="n">
-        <v>-2.857142857142857</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L275" t="n">
         <v>619</v>
@@ -14304,7 +14326,7 @@
         <v>809</v>
       </c>
       <c r="K276" t="n">
-        <v>-2.857142857142857</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L276" t="n">
         <v>618.9</v>
@@ -14355,7 +14377,7 @@
         <v>810</v>
       </c>
       <c r="K277" t="n">
-        <v>-2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>618.7</v>
@@ -14406,7 +14428,7 @@
         <v>810</v>
       </c>
       <c r="K278" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L278" t="n">
         <v>618.7</v>
@@ -14457,7 +14479,7 @@
         <v>813</v>
       </c>
       <c r="K279" t="n">
-        <v>8.571428571428571</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L279" t="n">
         <v>618.9</v>
@@ -14508,7 +14530,7 @@
         <v>816</v>
       </c>
       <c r="K280" t="n">
-        <v>5.555555555555555</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L280" t="n">
         <v>618.9</v>
@@ -14559,7 +14581,7 @@
         <v>816</v>
       </c>
       <c r="K281" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>618.6</v>
@@ -14610,7 +14632,7 @@
         <v>817</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L282" t="n">
         <v>618.5</v>
@@ -14661,7 +14683,7 @@
         <v>819</v>
       </c>
       <c r="K283" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L283" t="n">
         <v>618.1</v>
@@ -14712,7 +14734,7 @@
         <v>819</v>
       </c>
       <c r="K284" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L284" t="n">
         <v>617.7</v>
@@ -14763,7 +14785,7 @@
         <v>825</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L285" t="n">
         <v>618</v>
@@ -14814,7 +14836,7 @@
         <v>829</v>
       </c>
       <c r="K286" t="n">
-        <v>-9.090909090909092</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L286" t="n">
         <v>617.8</v>
@@ -14865,7 +14887,7 @@
         <v>834</v>
       </c>
       <c r="K287" t="n">
-        <v>-21.05263157894737</v>
+        <v>-25</v>
       </c>
       <c r="L287" t="n">
         <v>617.2</v>
@@ -14916,7 +14938,7 @@
         <v>834</v>
       </c>
       <c r="K288" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L288" t="n">
         <v>616.6</v>
@@ -14967,7 +14989,7 @@
         <v>838</v>
       </c>
       <c r="K289" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L289" t="n">
         <v>616.1</v>
@@ -15069,7 +15091,7 @@
         <v>841</v>
       </c>
       <c r="K291" t="n">
-        <v>-5.263157894736842</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L291" t="n">
         <v>616.2</v>
@@ -15120,7 +15142,7 @@
         <v>841</v>
       </c>
       <c r="K292" t="n">
-        <v>2.857142857142857</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L292" t="n">
         <v>616.4</v>
@@ -15171,7 +15193,7 @@
         <v>842</v>
       </c>
       <c r="K293" t="n">
-        <v>-2.857142857142857</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L293" t="n">
         <v>616.7</v>
@@ -15222,7 +15244,7 @@
         <v>843</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L294" t="n">
         <v>617.1</v>
@@ -15273,7 +15295,7 @@
         <v>843</v>
       </c>
       <c r="K295" t="n">
-        <v>2.857142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L295" t="n">
         <v>616.9</v>
@@ -15324,7 +15346,7 @@
         <v>843</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L296" t="n">
         <v>617.1</v>
@@ -15375,7 +15397,7 @@
         <v>845</v>
       </c>
       <c r="K297" t="n">
-        <v>8.571428571428571</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L297" t="n">
         <v>618</v>
@@ -15426,7 +15448,7 @@
         <v>847</v>
       </c>
       <c r="K298" t="n">
-        <v>2.702702702702703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L298" t="n">
         <v>618.7</v>
@@ -15477,7 +15499,7 @@
         <v>862</v>
       </c>
       <c r="K299" t="n">
-        <v>26.53061224489796</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L299" t="n">
         <v>620.5</v>
@@ -15528,7 +15550,7 @@
         <v>871</v>
       </c>
       <c r="K300" t="n">
-        <v>12.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L300" t="n">
         <v>621.2</v>
@@ -15579,7 +15601,7 @@
         <v>871</v>
       </c>
       <c r="K301" t="n">
-        <v>12.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L301" t="n">
         <v>621.8</v>
@@ -15630,7 +15652,7 @@
         <v>872</v>
       </c>
       <c r="K302" t="n">
-        <v>12.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L302" t="n">
         <v>622.3</v>
@@ -15681,7 +15703,7 @@
         <v>872</v>
       </c>
       <c r="K303" t="n">
-        <v>16.9811320754717</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L303" t="n">
         <v>622.9</v>
@@ -15732,7 +15754,7 @@
         <v>876</v>
       </c>
       <c r="K304" t="n">
-        <v>22.80701754385965</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L304" t="n">
         <v>623.8</v>
@@ -15783,7 +15805,7 @@
         <v>878</v>
       </c>
       <c r="K305" t="n">
-        <v>9.433962264150944</v>
+        <v>20</v>
       </c>
       <c r="L305" t="n">
         <v>624.5</v>
@@ -15834,7 +15856,7 @@
         <v>882</v>
       </c>
       <c r="K306" t="n">
-        <v>9.433962264150944</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L306" t="n">
         <v>624.8</v>
@@ -15885,7 +15907,7 @@
         <v>889</v>
       </c>
       <c r="K307" t="n">
-        <v>30.90909090909091</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L307" t="n">
         <v>625.6</v>
@@ -15936,7 +15958,7 @@
         <v>890</v>
       </c>
       <c r="K308" t="n">
-        <v>32.14285714285715</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L308" t="n">
         <v>626.7</v>
@@ -15987,7 +16009,7 @@
         <v>891</v>
       </c>
       <c r="K309" t="n">
-        <v>28.30188679245283</v>
+        <v>30</v>
       </c>
       <c r="L309" t="n">
         <v>626.4</v>
@@ -16038,7 +16060,7 @@
         <v>891</v>
       </c>
       <c r="K310" t="n">
-        <v>25.49019607843137</v>
+        <v>30</v>
       </c>
       <c r="L310" t="n">
         <v>627</v>
@@ -16089,7 +16111,7 @@
         <v>891</v>
       </c>
       <c r="K311" t="n">
-        <v>24</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L311" t="n">
         <v>627.6</v>
@@ -16140,7 +16162,7 @@
         <v>891</v>
       </c>
       <c r="K312" t="n">
-        <v>24</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L312" t="n">
         <v>628.3</v>
@@ -16191,7 +16213,7 @@
         <v>891</v>
       </c>
       <c r="K313" t="n">
-        <v>26.53061224489796</v>
+        <v>20</v>
       </c>
       <c r="L313" t="n">
         <v>629</v>
@@ -16242,7 +16264,7 @@
         <v>891</v>
       </c>
       <c r="K314" t="n">
-        <v>25</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L314" t="n">
         <v>629.3</v>
@@ -16293,7 +16315,7 @@
         <v>891</v>
       </c>
       <c r="K315" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L315" t="n">
         <v>629.8</v>
@@ -16344,7 +16366,7 @@
         <v>892</v>
       </c>
       <c r="K316" t="n">
-        <v>26.53061224489796</v>
+        <v>100</v>
       </c>
       <c r="L316" t="n">
         <v>630.8</v>
@@ -16395,7 +16417,7 @@
         <v>894</v>
       </c>
       <c r="K317" t="n">
-        <v>26.53061224489796</v>
+        <v>100</v>
       </c>
       <c r="L317" t="n">
         <v>631.3</v>
@@ -16446,7 +16468,7 @@
         <v>895</v>
       </c>
       <c r="K318" t="n">
-        <v>29.16666666666667</v>
+        <v>50</v>
       </c>
       <c r="L318" t="n">
         <v>631.6</v>
@@ -16497,7 +16519,7 @@
         <v>896</v>
       </c>
       <c r="K319" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L319" t="n">
         <v>631.7</v>
@@ -16548,7 +16570,7 @@
         <v>896</v>
       </c>
       <c r="K320" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L320" t="n">
         <v>631.8</v>
@@ -16599,7 +16621,7 @@
         <v>902</v>
       </c>
       <c r="K321" t="n">
-        <v>3.225806451612903</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L321" t="n">
         <v>631.3</v>
@@ -16650,7 +16672,7 @@
         <v>908</v>
       </c>
       <c r="K322" t="n">
-        <v>22.22222222222222</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L322" t="n">
         <v>631.4</v>
@@ -16701,7 +16723,7 @@
         <v>914</v>
       </c>
       <c r="K323" t="n">
-        <v>4.761904761904762</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L323" t="n">
         <v>630.9</v>
@@ -16752,7 +16774,7 @@
         <v>921</v>
       </c>
       <c r="K324" t="n">
-        <v>11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L324" t="n">
         <v>631.1</v>
@@ -16803,7 +16825,7 @@
         <v>928</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L325" t="n">
         <v>630.6</v>
@@ -16854,7 +16876,7 @@
         <v>928</v>
       </c>
       <c r="K326" t="n">
-        <v>8.695652173913043</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L326" t="n">
         <v>630</v>
@@ -16905,7 +16927,7 @@
         <v>928</v>
       </c>
       <c r="K327" t="n">
-        <v>-7.692307692307693</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L327" t="n">
         <v>629.2</v>
@@ -16956,7 +16978,7 @@
         <v>935</v>
       </c>
       <c r="K328" t="n">
-        <v>6.666666666666667</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L328" t="n">
         <v>629.2</v>
@@ -17007,7 +17029,7 @@
         <v>935</v>
       </c>
       <c r="K329" t="n">
-        <v>4.545454545454546</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L329" t="n">
         <v>629.3</v>
@@ -17058,7 +17080,7 @@
         <v>938</v>
       </c>
       <c r="K330" t="n">
-        <v>-2.127659574468085</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L330" t="n">
         <v>629.1</v>
@@ -17109,7 +17131,7 @@
         <v>940</v>
       </c>
       <c r="K331" t="n">
-        <v>-6.122448979591836</v>
+        <v>-12.5</v>
       </c>
       <c r="L331" t="n">
         <v>629.3</v>
@@ -17160,7 +17182,7 @@
         <v>942</v>
       </c>
       <c r="K332" t="n">
-        <v>-1.96078431372549</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L332" t="n">
         <v>629.1</v>
@@ -17211,7 +17233,7 @@
         <v>944</v>
       </c>
       <c r="K333" t="n">
-        <v>-5.660377358490567</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L333" t="n">
         <v>629.3</v>
@@ -17262,7 +17284,7 @@
         <v>946</v>
       </c>
       <c r="K334" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>628.6</v>
@@ -17313,7 +17335,7 @@
         <v>946</v>
       </c>
       <c r="K335" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>628.6</v>
@@ -17364,7 +17386,7 @@
         <v>947</v>
       </c>
       <c r="K336" t="n">
-        <v>-12.72727272727273</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L336" t="n">
         <v>628.5</v>
@@ -17415,7 +17437,7 @@
         <v>948</v>
       </c>
       <c r="K337" t="n">
-        <v>-18.51851851851852</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L337" t="n">
         <v>628.3</v>
@@ -17466,7 +17488,7 @@
         <v>950</v>
       </c>
       <c r="K338" t="n">
-        <v>-12.72727272727273</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L338" t="n">
         <v>627.6</v>
@@ -17517,7 +17539,7 @@
         <v>951</v>
       </c>
       <c r="K339" t="n">
-        <v>-12.72727272727273</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L339" t="n">
         <v>626.8</v>
@@ -17568,7 +17590,7 @@
         <v>956</v>
       </c>
       <c r="K340" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L340" t="n">
         <v>625.8</v>
@@ -17619,7 +17641,7 @@
         <v>956</v>
       </c>
       <c r="K341" t="n">
-        <v>-11.11111111111111</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L341" t="n">
         <v>625</v>
@@ -17670,7 +17692,7 @@
         <v>961</v>
       </c>
       <c r="K342" t="n">
-        <v>-13.20754716981132</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L342" t="n">
         <v>624.5</v>
@@ -17721,7 +17743,7 @@
         <v>961</v>
       </c>
       <c r="K343" t="n">
-        <v>-2.127659574468085</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L343" t="n">
         <v>624.2</v>
@@ -17772,7 +17794,7 @@
         <v>962</v>
       </c>
       <c r="K344" t="n">
-        <v>-21.95121951219512</v>
+        <v>-12.5</v>
       </c>
       <c r="L344" t="n">
         <v>624</v>
@@ -17823,7 +17845,7 @@
         <v>962</v>
       </c>
       <c r="K345" t="n">
-        <v>-5.88235294117647</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L345" t="n">
         <v>623.8</v>
@@ -17874,7 +17896,7 @@
         <v>965</v>
       </c>
       <c r="K346" t="n">
-        <v>-13.51351351351351</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L346" t="n">
         <v>623.4</v>
@@ -17925,7 +17947,7 @@
         <v>965</v>
       </c>
       <c r="K347" t="n">
-        <v>-13.51351351351351</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L347" t="n">
         <v>623.1</v>
@@ -17976,7 +17998,7 @@
         <v>972</v>
       </c>
       <c r="K348" t="n">
-        <v>-51.35135135135135</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L348" t="n">
         <v>621.9</v>
@@ -18027,7 +18049,7 @@
         <v>979</v>
       </c>
       <c r="K349" t="n">
-        <v>-27.27272727272727</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L349" t="n">
         <v>621.5</v>
@@ -18078,7 +18100,7 @@
         <v>979</v>
       </c>
       <c r="K350" t="n">
-        <v>-21.95121951219512</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L350" t="n">
         <v>621.6</v>
@@ -18129,7 +18151,7 @@
         <v>979</v>
       </c>
       <c r="K351" t="n">
-        <v>-17.94871794871795</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L351" t="n">
         <v>621.7</v>
@@ -18231,7 +18253,7 @@
         <v>987</v>
       </c>
       <c r="K353" t="n">
-        <v>-34.88372093023256</v>
+        <v>-44</v>
       </c>
       <c r="L353" t="n">
         <v>620</v>
@@ -18282,7 +18304,7 @@
         <v>998</v>
       </c>
       <c r="K354" t="n">
-        <v>-3.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="L354" t="n">
         <v>620</v>
@@ -18333,7 +18355,7 @@
         <v>1007</v>
       </c>
       <c r="K355" t="n">
-        <v>-18.0327868852459</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L355" t="n">
         <v>619.1</v>
@@ -18384,7 +18406,7 @@
         <v>1011</v>
       </c>
       <c r="K356" t="n">
-        <v>-9.375</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L356" t="n">
         <v>618.9</v>
@@ -18435,7 +18457,7 @@
         <v>1011</v>
       </c>
       <c r="K357" t="n">
-        <v>-7.936507936507936</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L357" t="n">
         <v>618.7</v>
@@ -18486,7 +18508,7 @@
         <v>1014</v>
       </c>
       <c r="K358" t="n">
-        <v>-15.625</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L358" t="n">
         <v>618.9</v>
@@ -18537,7 +18559,7 @@
         <v>1016</v>
       </c>
       <c r="K359" t="n">
-        <v>-16.92307692307692</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L359" t="n">
         <v>618.2</v>
@@ -18588,7 +18610,7 @@
         <v>1017</v>
       </c>
       <c r="K360" t="n">
-        <v>-11.47540983606557</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L360" t="n">
         <v>617.4</v>
@@ -18639,7 +18661,7 @@
         <v>1018</v>
       </c>
       <c r="K361" t="n">
-        <v>-12.90322580645161</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L361" t="n">
         <v>616.5</v>
@@ -18690,7 +18712,7 @@
         <v>1021</v>
       </c>
       <c r="K362" t="n">
-        <v>-16.66666666666666</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L362" t="n">
         <v>616</v>
@@ -18741,7 +18763,7 @@
         <v>1024</v>
       </c>
       <c r="K363" t="n">
-        <v>-20.63492063492063</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L363" t="n">
         <v>615.9</v>
@@ -18792,7 +18814,7 @@
         <v>1026</v>
       </c>
       <c r="K364" t="n">
-        <v>-15.625</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L364" t="n">
         <v>614.9</v>
@@ -18843,7 +18865,7 @@
         <v>1030</v>
       </c>
       <c r="K365" t="n">
-        <v>-8.823529411764707</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L365" t="n">
         <v>615.2</v>
@@ -18894,7 +18916,7 @@
         <v>1030</v>
       </c>
       <c r="K366" t="n">
-        <v>-4.615384615384616</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L366" t="n">
         <v>615.1</v>
@@ -18945,7 +18967,7 @@
         <v>1030</v>
       </c>
       <c r="K367" t="n">
-        <v>-4.615384615384616</v>
+        <v>12.5</v>
       </c>
       <c r="L367" t="n">
         <v>615</v>
@@ -18996,7 +19018,7 @@
         <v>1037</v>
       </c>
       <c r="K368" t="n">
-        <v>-4.615384615384616</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L368" t="n">
         <v>614.5</v>
@@ -19047,7 +19069,7 @@
         <v>1043</v>
       </c>
       <c r="K369" t="n">
-        <v>-6.25</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L369" t="n">
         <v>614.8</v>
@@ -19098,7 +19120,7 @@
         <v>1044</v>
       </c>
       <c r="K370" t="n">
-        <v>-4.615384615384616</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L370" t="n">
         <v>615.3</v>
@@ -19149,7 +19171,7 @@
         <v>1044</v>
       </c>
       <c r="K371" t="n">
-        <v>-4.615384615384616</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L371" t="n">
         <v>615.9</v>
@@ -19200,7 +19222,7 @@
         <v>1050</v>
       </c>
       <c r="K372" t="n">
-        <v>-11.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>615.6</v>
@@ -19251,7 +19273,7 @@
         <v>1053</v>
       </c>
       <c r="K373" t="n">
-        <v>3.03030303030303</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L373" t="n">
         <v>615.9</v>
@@ -19302,7 +19324,7 @@
         <v>1053</v>
       </c>
       <c r="K374" t="n">
-        <v>-16.36363636363636</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L374" t="n">
         <v>616</v>
@@ -19353,7 +19375,7 @@
         <v>1059</v>
       </c>
       <c r="K375" t="n">
-        <v>11.53846153846154</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L375" t="n">
         <v>616.3</v>
@@ -19404,7 +19426,7 @@
         <v>1059</v>
       </c>
       <c r="K376" t="n">
-        <v>4.166666666666666</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L376" t="n">
         <v>616.6</v>
@@ -19455,7 +19477,7 @@
         <v>1066</v>
       </c>
       <c r="K377" t="n">
-        <v>-9.090909090909092</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L377" t="n">
         <v>616.2</v>
@@ -19506,7 +19528,7 @@
         <v>1069</v>
       </c>
       <c r="K378" t="n">
-        <v>1.818181818181818</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>616.8</v>
@@ -19557,7 +19579,7 @@
         <v>1069</v>
       </c>
       <c r="K379" t="n">
-        <v>5.660377358490567</v>
+        <v>-4</v>
       </c>
       <c r="L379" t="n">
         <v>616.8</v>
@@ -19608,7 +19630,7 @@
         <v>1069</v>
       </c>
       <c r="K380" t="n">
-        <v>7.692307692307693</v>
+        <v>-4</v>
       </c>
       <c r="L380" t="n">
         <v>616.7</v>
@@ -19659,7 +19681,7 @@
         <v>1071</v>
       </c>
       <c r="K381" t="n">
-        <v>5.660377358490567</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L381" t="n">
         <v>616.4</v>
@@ -19710,7 +19732,7 @@
         <v>1074</v>
       </c>
       <c r="K382" t="n">
-        <v>-5.660377358490567</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L382" t="n">
         <v>616.4</v>
@@ -19761,7 +19783,7 @@
         <v>1082</v>
       </c>
       <c r="K383" t="n">
-        <v>13.79310344827586</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L383" t="n">
         <v>616.9</v>
@@ -19812,7 +19834,7 @@
         <v>1090</v>
       </c>
       <c r="K384" t="n">
-        <v>-3.125</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L384" t="n">
         <v>616.6</v>
@@ -19863,7 +19885,7 @@
         <v>1098</v>
       </c>
       <c r="K385" t="n">
-        <v>2.941176470588235</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L385" t="n">
         <v>616.5</v>
@@ -19914,7 +19936,7 @@
         <v>1098</v>
       </c>
       <c r="K386" t="n">
-        <v>2.941176470588235</v>
+        <v>18.75</v>
       </c>
       <c r="L386" t="n">
         <v>616.4</v>
@@ -19965,7 +19987,7 @@
         <v>1099</v>
       </c>
       <c r="K387" t="n">
-        <v>4.347826086956522</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L387" t="n">
         <v>617.1</v>
@@ -20016,7 +20038,7 @@
         <v>1099</v>
       </c>
       <c r="K388" t="n">
-        <v>16.12903225806452</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L388" t="n">
         <v>617.5</v>
@@ -20067,7 +20089,7 @@
         <v>1100</v>
       </c>
       <c r="K389" t="n">
-        <v>5.263157894736842</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L389" t="n">
         <v>617.8</v>
@@ -20118,7 +20140,7 @@
         <v>1108</v>
       </c>
       <c r="K390" t="n">
-        <v>-9.375</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L390" t="n">
         <v>617.3</v>
@@ -20169,7 +20191,7 @@
         <v>1109</v>
       </c>
       <c r="K391" t="n">
-        <v>-7.692307692307693</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L391" t="n">
         <v>617.1</v>
@@ -20220,7 +20242,7 @@
         <v>1109</v>
       </c>
       <c r="K392" t="n">
-        <v>1.694915254237288</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L392" t="n">
         <v>617.2</v>
@@ -20271,7 +20293,7 @@
         <v>1109</v>
       </c>
       <c r="K393" t="n">
-        <v>-3.571428571428571</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L393" t="n">
         <v>616.5</v>
@@ -20322,7 +20344,7 @@
         <v>1109</v>
       </c>
       <c r="K394" t="n">
-        <v>-3.571428571428571</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L394" t="n">
         <v>616.6</v>
@@ -20373,7 +20395,7 @@
         <v>1109</v>
       </c>
       <c r="K395" t="n">
-        <v>-16</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L395" t="n">
         <v>615.9</v>
@@ -20424,7 +20446,7 @@
         <v>1111</v>
       </c>
       <c r="K396" t="n">
-        <v>-11.53846153846154</v>
+        <v>-50</v>
       </c>
       <c r="L396" t="n">
         <v>615.4</v>
@@ -20475,7 +20497,7 @@
         <v>1111</v>
       </c>
       <c r="K397" t="n">
-        <v>2.222222222222222</v>
+        <v>-50</v>
       </c>
       <c r="L397" t="n">
         <v>614.8</v>
@@ -20526,7 +20548,7 @@
         <v>1115</v>
       </c>
       <c r="K398" t="n">
-        <v>4.347826086956522</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L398" t="n">
         <v>614.6</v>
@@ -20577,7 +20599,7 @@
         <v>1115</v>
       </c>
       <c r="K399" t="n">
-        <v>4.347826086956522</v>
+        <v>100</v>
       </c>
       <c r="L399" t="n">
         <v>614.5</v>
@@ -20628,7 +20650,7 @@
         <v>1115</v>
       </c>
       <c r="K400" t="n">
-        <v>4.347826086956522</v>
+        <v>100</v>
       </c>
       <c r="L400" t="n">
         <v>615.2</v>
@@ -20679,7 +20701,7 @@
         <v>1115</v>
       </c>
       <c r="K401" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L401" t="n">
         <v>615.8</v>
@@ -20730,7 +20752,7 @@
         <v>1121</v>
       </c>
       <c r="K402" t="n">
-        <v>2.127659574468085</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>615.8</v>
@@ -20781,7 +20803,7 @@
         <v>1121</v>
       </c>
       <c r="K403" t="n">
-        <v>-17.94871794871795</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>615.8</v>
@@ -20832,7 +20854,7 @@
         <v>1121</v>
       </c>
       <c r="K404" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>615.8</v>
@@ -20883,7 +20905,7 @@
         <v>1121</v>
       </c>
       <c r="K405" t="n">
-        <v>-30.43478260869566</v>
+        <v>-20</v>
       </c>
       <c r="L405" t="n">
         <v>615.8</v>
@@ -20934,7 +20956,7 @@
         <v>1122</v>
       </c>
       <c r="K406" t="n">
-        <v>-25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L406" t="n">
         <v>615.7</v>
@@ -20985,7 +21007,7 @@
         <v>1129</v>
       </c>
       <c r="K407" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L407" t="n">
         <v>616.3</v>
@@ -21036,7 +21058,7 @@
         <v>1137</v>
       </c>
       <c r="K408" t="n">
-        <v>-21.05263157894737</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L408" t="n">
         <v>615.7</v>
@@ -21087,7 +21109,7 @@
         <v>1138</v>
       </c>
       <c r="K409" t="n">
-        <v>-15.78947368421053</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L409" t="n">
         <v>615.2</v>
@@ -21138,7 +21160,7 @@
         <v>1138</v>
       </c>
       <c r="K410" t="n">
-        <v>6.666666666666667</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L410" t="n">
         <v>614.7</v>
@@ -21240,7 +21262,7 @@
         <v>1140</v>
       </c>
       <c r="K412" t="n">
-        <v>3.225806451612903</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L412" t="n">
         <v>614.2</v>
@@ -21291,7 +21313,7 @@
         <v>1140</v>
       </c>
       <c r="K413" t="n">
-        <v>3.225806451612903</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L413" t="n">
         <v>614.3</v>
@@ -21342,7 +21364,7 @@
         <v>1140</v>
       </c>
       <c r="K414" t="n">
-        <v>3.225806451612903</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L414" t="n">
         <v>614.4</v>
@@ -21393,7 +21415,7 @@
         <v>1140</v>
       </c>
       <c r="K415" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
         <v>614.5</v>
@@ -21444,7 +21466,7 @@
         <v>1140</v>
       </c>
       <c r="K416" t="n">
-        <v>-3.448275862068965</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L416" t="n">
         <v>614.5</v>
@@ -21495,7 +21517,7 @@
         <v>1141</v>
       </c>
       <c r="K417" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L417" t="n">
         <v>613.9</v>
@@ -21546,7 +21568,7 @@
         <v>1142</v>
       </c>
       <c r="K418" t="n">
-        <v>-18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>614</v>
@@ -21597,7 +21619,7 @@
         <v>1143</v>
       </c>
       <c r="K419" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L419" t="n">
         <v>614.1</v>
@@ -21648,7 +21670,7 @@
         <v>1144</v>
       </c>
       <c r="K420" t="n">
-        <v>-17.24137931034483</v>
+        <v>20</v>
       </c>
       <c r="L420" t="n">
         <v>614.1</v>
@@ -21699,7 +21721,7 @@
         <v>1144</v>
       </c>
       <c r="K421" t="n">
-        <v>-17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L421" t="n">
         <v>614.2</v>
@@ -21750,7 +21772,7 @@
         <v>1146</v>
       </c>
       <c r="K422" t="n">
-        <v>-4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L422" t="n">
         <v>614</v>
@@ -21801,7 +21823,7 @@
         <v>1147</v>
       </c>
       <c r="K423" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L423" t="n">
         <v>613.9</v>
@@ -21852,7 +21874,7 @@
         <v>1148</v>
       </c>
       <c r="K424" t="n">
-        <v>-3.703703703703703</v>
+        <v>-25</v>
       </c>
       <c r="L424" t="n">
         <v>613.7</v>
@@ -21903,7 +21925,7 @@
         <v>1148</v>
       </c>
       <c r="K425" t="n">
-        <v>-3.703703703703703</v>
+        <v>-25</v>
       </c>
       <c r="L425" t="n">
         <v>613.5</v>
@@ -21954,7 +21976,7 @@
         <v>1148</v>
       </c>
       <c r="K426" t="n">
-        <v>-7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L426" t="n">
         <v>613.3</v>
@@ -22005,7 +22027,7 @@
         <v>1153</v>
       </c>
       <c r="K427" t="n">
-        <v>-16.66666666666666</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L427" t="n">
         <v>613.5</v>
@@ -22056,7 +22078,7 @@
         <v>1153</v>
       </c>
       <c r="K428" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L428" t="n">
         <v>613.8</v>
@@ -22107,7 +22129,7 @@
         <v>1158</v>
       </c>
       <c r="K429" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L429" t="n">
         <v>613.5</v>
@@ -22158,7 +22180,7 @@
         <v>1158</v>
       </c>
       <c r="K430" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L430" t="n">
         <v>613.3</v>
@@ -22209,7 +22231,7 @@
         <v>1158</v>
       </c>
       <c r="K431" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L431" t="n">
         <v>613.1</v>
@@ -22260,7 +22282,7 @@
         <v>1158</v>
       </c>
       <c r="K432" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L432" t="n">
         <v>613.1</v>
@@ -22311,7 +22333,7 @@
         <v>1160</v>
       </c>
       <c r="K433" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L433" t="n">
         <v>612.8</v>
@@ -22362,7 +22384,7 @@
         <v>1163</v>
       </c>
       <c r="K434" t="n">
-        <v>-30.43478260869566</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L434" t="n">
         <v>612.3</v>
@@ -22413,7 +22435,7 @@
         <v>1166</v>
       </c>
       <c r="K435" t="n">
-        <v>-38.46153846153847</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L435" t="n">
         <v>611.5</v>
@@ -22464,7 +22486,7 @@
         <v>1168</v>
       </c>
       <c r="K436" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L436" t="n">
         <v>610.5</v>
@@ -22515,7 +22537,7 @@
         <v>1168</v>
       </c>
       <c r="K437" t="n">
-        <v>-48.14814814814815</v>
+        <v>-100</v>
       </c>
       <c r="L437" t="n">
         <v>609</v>
@@ -22566,7 +22588,7 @@
         <v>1168</v>
       </c>
       <c r="K438" t="n">
-        <v>-46.15384615384615</v>
+        <v>-100</v>
       </c>
       <c r="L438" t="n">
         <v>607.5</v>
@@ -22617,7 +22639,7 @@
         <v>1168</v>
       </c>
       <c r="K439" t="n">
-        <v>-52</v>
+        <v>-100</v>
       </c>
       <c r="L439" t="n">
         <v>606.5</v>
@@ -22668,7 +22690,7 @@
         <v>1178</v>
       </c>
       <c r="K440" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>606.5</v>
@@ -22719,7 +22741,7 @@
         <v>1179</v>
       </c>
       <c r="K441" t="n">
-        <v>-8.571428571428571</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L441" t="n">
         <v>606.4</v>
@@ -22774,7 +22796,7 @@
         <v>1181</v>
       </c>
       <c r="K442" t="n">
-        <v>2.857142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L442" t="n">
         <v>606.5</v>
@@ -22829,7 +22851,7 @@
         <v>1182</v>
       </c>
       <c r="K443" t="n">
-        <v>-2.857142857142857</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L443" t="n">
         <v>606.7</v>
@@ -22886,7 +22908,7 @@
         <v>1182</v>
       </c>
       <c r="K444" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L444" t="n">
         <v>607.2</v>
@@ -22943,7 +22965,7 @@
         <v>1182</v>
       </c>
       <c r="K445" t="n">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L445" t="n">
         <v>608</v>
@@ -23000,7 +23022,7 @@
         <v>1182</v>
       </c>
       <c r="K446" t="n">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L446" t="n">
         <v>609</v>
@@ -23057,7 +23079,7 @@
         <v>1182</v>
       </c>
       <c r="K447" t="n">
-        <v>-17.24137931034483</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L447" t="n">
         <v>610</v>
@@ -23114,7 +23136,7 @@
         <v>1183</v>
       </c>
       <c r="K448" t="n">
-        <v>-20</v>
+        <v>60</v>
       </c>
       <c r="L448" t="n">
         <v>610.9</v>
@@ -23171,7 +23193,7 @@
         <v>1183</v>
       </c>
       <c r="K449" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="L449" t="n">
         <v>611.8</v>
@@ -23228,7 +23250,7 @@
         <v>1184</v>
       </c>
       <c r="K450" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L450" t="n">
         <v>611.8</v>
@@ -23285,7 +23307,7 @@
         <v>1184</v>
       </c>
       <c r="K451" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L451" t="n">
         <v>611.9</v>
@@ -23342,7 +23364,7 @@
         <v>1185</v>
       </c>
       <c r="K452" t="n">
-        <v>3.703703703703703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L452" t="n">
         <v>611.9</v>
@@ -23399,7 +23421,7 @@
         <v>1185</v>
       </c>
       <c r="K453" t="n">
-        <v>12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L453" t="n">
         <v>612</v>
@@ -23456,7 +23478,7 @@
         <v>1185</v>
       </c>
       <c r="K454" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L454" t="n">
         <v>612.1</v>
@@ -23513,7 +23535,7 @@
         <v>1187</v>
       </c>
       <c r="K455" t="n">
-        <v>52.38095238095239</v>
+        <v>60</v>
       </c>
       <c r="L455" t="n">
         <v>612.4</v>
@@ -23570,7 +23592,7 @@
         <v>1188</v>
       </c>
       <c r="K456" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L456" t="n">
         <v>612.6</v>
@@ -23627,7 +23649,7 @@
         <v>1189</v>
       </c>
       <c r="K457" t="n">
-        <v>61.90476190476191</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L457" t="n">
         <v>612.9</v>
@@ -23684,7 +23706,7 @@
         <v>1189</v>
       </c>
       <c r="K458" t="n">
-        <v>61.90476190476191</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L458" t="n">
         <v>613.3</v>
@@ -23741,7 +23763,7 @@
         <v>1190</v>
       </c>
       <c r="K459" t="n">
-        <v>63.63636363636363</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L459" t="n">
         <v>613.8</v>
@@ -23798,7 +23820,7 @@
         <v>1191</v>
       </c>
       <c r="K460" t="n">
-        <v>38.46153846153847</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L460" t="n">
         <v>614.3</v>
@@ -23855,7 +23877,7 @@
         <v>1192</v>
       </c>
       <c r="K461" t="n">
-        <v>53.84615384615385</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L461" t="n">
         <v>614.9</v>
@@ -23906,7 +23928,7 @@
         <v>1202</v>
       </c>
       <c r="K462" t="n">
-        <v>71.42857142857143</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L462" t="n">
         <v>616.4</v>
@@ -24008,7 +24030,7 @@
         <v>1215</v>
       </c>
       <c r="K464" t="n">
-        <v>45.45454545454545</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L464" t="n">
         <v>618.6</v>
@@ -24059,7 +24081,7 @@
         <v>1216</v>
       </c>
       <c r="K465" t="n">
-        <v>41.17647058823529</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L465" t="n">
         <v>619.7</v>
@@ -24161,7 +24183,7 @@
         <v>1219</v>
       </c>
       <c r="K467" t="n">
-        <v>45.94594594594595</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L467" t="n">
         <v>622.4</v>
@@ -24212,7 +24234,7 @@
         <v>1219</v>
       </c>
       <c r="K468" t="n">
-        <v>50</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L468" t="n">
         <v>623.8</v>
@@ -24263,7 +24285,7 @@
         <v>1227</v>
       </c>
       <c r="K469" t="n">
-        <v>22.72727272727273</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L469" t="n">
         <v>624.3</v>
@@ -24314,7 +24336,7 @@
         <v>1228</v>
       </c>
       <c r="K470" t="n">
-        <v>18.18181818181818</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L470" t="n">
         <v>624.6</v>
@@ -24365,7 +24387,7 @@
         <v>1236</v>
       </c>
       <c r="K471" t="n">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>625.6</v>
@@ -24416,7 +24438,7 @@
         <v>1238</v>
       </c>
       <c r="K472" t="n">
-        <v>24.52830188679245</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L472" t="n">
         <v>625.4</v>
@@ -24467,7 +24489,7 @@
         <v>1239</v>
       </c>
       <c r="K473" t="n">
-        <v>22.22222222222222</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L473" t="n">
         <v>625.8</v>
@@ -24518,7 +24540,7 @@
         <v>1240</v>
       </c>
       <c r="K474" t="n">
-        <v>23.63636363636364</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>625.7</v>
@@ -24569,7 +24591,7 @@
         <v>1240</v>
       </c>
       <c r="K475" t="n">
-        <v>20.75471698113208</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L475" t="n">
         <v>625.7</v>
@@ -24620,7 +24642,7 @@
         <v>1241</v>
       </c>
       <c r="K476" t="n">
-        <v>24.52830188679245</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L476" t="n">
         <v>625.7</v>
@@ -24671,7 +24693,7 @@
         <v>1241</v>
       </c>
       <c r="K477" t="n">
-        <v>23.07692307692308</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L477" t="n">
         <v>625.5</v>
@@ -24722,7 +24744,7 @@
         <v>1243</v>
       </c>
       <c r="K478" t="n">
-        <v>25.92592592592592</v>
+        <v>50</v>
       </c>
       <c r="L478" t="n">
         <v>625.5</v>
@@ -24773,7 +24795,7 @@
         <v>1247</v>
       </c>
       <c r="K479" t="n">
-        <v>29.82456140350877</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L479" t="n">
         <v>626.7</v>
@@ -24824,7 +24846,7 @@
         <v>1248</v>
       </c>
       <c r="K480" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L480" t="n">
         <v>627.9</v>
@@ -24875,7 +24897,7 @@
         <v>1249</v>
       </c>
       <c r="K481" t="n">
-        <v>22.80701754385965</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L481" t="n">
         <v>628.2</v>
@@ -24926,7 +24948,7 @@
         <v>1249</v>
       </c>
       <c r="K482" t="n">
-        <v>6.382978723404255</v>
+        <v>60</v>
       </c>
       <c r="L482" t="n">
         <v>628.7</v>
@@ -24977,7 +24999,7 @@
         <v>1250</v>
       </c>
       <c r="K483" t="n">
-        <v>21.95121951219512</v>
+        <v>40</v>
       </c>
       <c r="L483" t="n">
         <v>629.2</v>
@@ -25028,7 +25050,7 @@
         <v>1259</v>
       </c>
       <c r="K484" t="n">
-        <v>-13.63636363636363</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L484" t="n">
         <v>628.7</v>
@@ -25079,7 +25101,7 @@
         <v>1262</v>
       </c>
       <c r="K485" t="n">
-        <v>-4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L485" t="n">
         <v>628.5</v>
@@ -25130,7 +25152,7 @@
         <v>1264</v>
       </c>
       <c r="K486" t="n">
-        <v>-2.127659574468085</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L486" t="n">
         <v>628.4</v>
@@ -25181,7 +25203,7 @@
         <v>1269</v>
       </c>
       <c r="K487" t="n">
-        <v>-16</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L487" t="n">
         <v>627.8</v>
@@ -25232,7 +25254,7 @@
         <v>1270</v>
       </c>
       <c r="K488" t="n">
-        <v>-17.64705882352941</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L488" t="n">
         <v>626.9</v>
@@ -25283,7 +25305,7 @@
         <v>1272</v>
       </c>
       <c r="K489" t="n">
-        <v>-6.666666666666667</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L489" t="n">
         <v>625.4</v>
@@ -25334,7 +25356,7 @@
         <v>1275</v>
       </c>
       <c r="K490" t="n">
-        <v>-10.63829787234043</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L490" t="n">
         <v>623.7</v>
@@ -25385,7 +25407,7 @@
         <v>1277</v>
       </c>
       <c r="K491" t="n">
-        <v>-36.58536585365854</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L491" t="n">
         <v>621.9</v>
@@ -25436,7 +25458,7 @@
         <v>1278</v>
       </c>
       <c r="K492" t="n">
-        <v>-35</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L492" t="n">
         <v>620</v>
@@ -25487,7 +25509,7 @@
         <v>1278</v>
       </c>
       <c r="K493" t="n">
-        <v>-33.33333333333333</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L493" t="n">
         <v>618.2</v>
@@ -25538,7 +25560,7 @@
         <v>1281</v>
       </c>
       <c r="K494" t="n">
-        <v>-26.82926829268293</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L494" t="n">
         <v>617.6</v>
@@ -25589,7 +25611,7 @@
         <v>1281</v>
       </c>
       <c r="K495" t="n">
-        <v>-26.82926829268293</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L495" t="n">
         <v>616.7</v>
@@ -25640,7 +25662,7 @@
         <v>1281</v>
       </c>
       <c r="K496" t="n">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="L496" t="n">
         <v>615.6</v>
@@ -25691,7 +25713,7 @@
         <v>1281</v>
       </c>
       <c r="K497" t="n">
-        <v>-30</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L497" t="n">
         <v>615</v>
@@ -25742,7 +25764,7 @@
         <v>1281</v>
       </c>
       <c r="K498" t="n">
-        <v>-36.84210526315789</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L498" t="n">
         <v>614.5</v>
@@ -25793,7 +25815,7 @@
         <v>1281</v>
       </c>
       <c r="K499" t="n">
-        <v>-52.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="L499" t="n">
         <v>614.2</v>
@@ -25844,7 +25866,7 @@
         <v>1285</v>
       </c>
       <c r="K500" t="n">
-        <v>-56.75675675675676</v>
+        <v>-25</v>
       </c>
       <c r="L500" t="n">
         <v>613.8</v>
@@ -25895,7 +25917,7 @@
         <v>1289</v>
       </c>
       <c r="K501" t="n">
-        <v>-60</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L501" t="n">
         <v>613.2</v>
@@ -25946,7 +25968,7 @@
         <v>1289</v>
       </c>
       <c r="K502" t="n">
-        <v>-60</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L502" t="n">
         <v>612.7</v>
@@ -25997,7 +26019,7 @@
         <v>1289</v>
       </c>
       <c r="K503" t="n">
-        <v>-58.97435897435898</v>
+        <v>-100</v>
       </c>
       <c r="L503" t="n">
         <v>612.2</v>
@@ -26048,7 +26070,7 @@
         <v>1290</v>
       </c>
       <c r="K504" t="n">
-        <v>-41.93548387096774</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L504" t="n">
         <v>611.5</v>
@@ -26099,7 +26121,7 @@
         <v>1294</v>
       </c>
       <c r="K505" t="n">
-        <v>-37.5</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L505" t="n">
         <v>611.2</v>
@@ -26150,7 +26172,7 @@
         <v>1298</v>
       </c>
       <c r="K506" t="n">
-        <v>-52.94117647058824</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L506" t="n">
         <v>610.5</v>
@@ -26201,7 +26223,7 @@
         <v>1299</v>
       </c>
       <c r="K507" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L507" t="n">
         <v>609.9</v>
@@ -26252,7 +26274,7 @@
         <v>1299</v>
       </c>
       <c r="K508" t="n">
-        <v>-37.93103448275862</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L508" t="n">
         <v>609.3</v>
@@ -26303,7 +26325,7 @@
         <v>1305</v>
       </c>
       <c r="K509" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L509" t="n">
         <v>609.3</v>
@@ -26354,7 +26376,7 @@
         <v>1311</v>
       </c>
       <c r="K510" t="n">
-        <v>-16.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L510" t="n">
         <v>609.1</v>
@@ -26405,7 +26427,7 @@
         <v>1312</v>
       </c>
       <c r="K511" t="n">
-        <v>-8.571428571428571</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L511" t="n">
         <v>609.4</v>
@@ -26456,7 +26478,7 @@
         <v>1317</v>
       </c>
       <c r="K512" t="n">
-        <v>7.692307692307693</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L512" t="n">
         <v>610.2</v>
@@ -26507,7 +26529,7 @@
         <v>1325</v>
       </c>
       <c r="K513" t="n">
-        <v>-10.63829787234043</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L513" t="n">
         <v>610.2</v>
@@ -26558,7 +26580,7 @@
         <v>1325</v>
       </c>
       <c r="K514" t="n">
-        <v>-18.18181818181818</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L514" t="n">
         <v>610.1</v>
@@ -26609,7 +26631,7 @@
         <v>1329</v>
       </c>
       <c r="K515" t="n">
-        <v>-8.333333333333332</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L515" t="n">
         <v>610</v>
@@ -26660,7 +26682,7 @@
         <v>1329</v>
       </c>
       <c r="K516" t="n">
-        <v>-8.333333333333332</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L516" t="n">
         <v>610.3</v>
@@ -26711,7 +26733,7 @@
         <v>1329</v>
       </c>
       <c r="K517" t="n">
-        <v>-8.333333333333332</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L517" t="n">
         <v>610.5</v>
@@ -26762,7 +26784,7 @@
         <v>1331</v>
       </c>
       <c r="K518" t="n">
-        <v>-4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L518" t="n">
         <v>610.9</v>
@@ -26813,7 +26835,7 @@
         <v>1334</v>
       </c>
       <c r="K519" t="n">
-        <v>-9.433962264150944</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L519" t="n">
         <v>610.4</v>
@@ -26864,7 +26886,7 @@
         <v>1338</v>
       </c>
       <c r="K520" t="n">
-        <v>5.660377358490567</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L520" t="n">
         <v>610.9</v>
@@ -26915,7 +26937,7 @@
         <v>1339</v>
       </c>
       <c r="K521" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L521" t="n">
         <v>611.4</v>
@@ -26966,7 +26988,7 @@
         <v>1340</v>
       </c>
       <c r="K522" t="n">
-        <v>13.72549019607843</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L522" t="n">
         <v>611.3</v>
@@ -27017,7 +27039,7 @@
         <v>1340</v>
       </c>
       <c r="K523" t="n">
-        <v>13.72549019607843</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L523" t="n">
         <v>612</v>
@@ -27068,7 +27090,7 @@
         <v>1340</v>
       </c>
       <c r="K524" t="n">
-        <v>12</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L524" t="n">
         <v>612.7</v>
@@ -27119,7 +27141,7 @@
         <v>1341</v>
       </c>
       <c r="K525" t="n">
-        <v>6.382978723404255</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L525" t="n">
         <v>613.1</v>
@@ -27170,7 +27192,7 @@
         <v>1341</v>
       </c>
       <c r="K526" t="n">
-        <v>16.27906976744186</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L526" t="n">
         <v>613.5</v>
@@ -27221,7 +27243,7 @@
         <v>1342</v>
       </c>
       <c r="K527" t="n">
-        <v>11.62790697674419</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L527" t="n">
         <v>613.8</v>
@@ -27272,7 +27294,7 @@
         <v>1342</v>
       </c>
       <c r="K528" t="n">
-        <v>11.62790697674419</v>
+        <v>50</v>
       </c>
       <c r="L528" t="n">
         <v>613.9</v>
@@ -27323,7 +27345,7 @@
         <v>1343</v>
       </c>
       <c r="K529" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L529" t="n">
         <v>614.4</v>
@@ -27374,7 +27396,7 @@
         <v>1346</v>
       </c>
       <c r="K530" t="n">
-        <v>8.571428571428571</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L530" t="n">
         <v>614.2</v>
@@ -27425,7 +27447,7 @@
         <v>1347</v>
       </c>
       <c r="K531" t="n">
-        <v>8.571428571428571</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L531" t="n">
         <v>614</v>
@@ -27476,7 +27498,7 @@
         <v>1347</v>
       </c>
       <c r="K532" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L532" t="n">
         <v>613.9</v>

--- a/BackTest/2019-10-14 BackTest PPT.xlsx
+++ b/BackTest/2019-10-14 BackTest PPT.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -15291,17 +15291,13 @@
         <v>615.3166666666667</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>612</v>
-      </c>
-      <c r="K426" t="n">
-        <v>612</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
@@ -15330,22 +15326,14 @@
         <v>615.3</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>617</v>
-      </c>
-      <c r="K427" t="n">
-        <v>612</v>
-      </c>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15373,22 +15361,14 @@
         <v>615.4</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>617</v>
-      </c>
-      <c r="K428" t="n">
-        <v>612</v>
-      </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15521,17 +15501,13 @@
         <v>615.1166666666667</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>612</v>
-      </c>
-      <c r="K432" t="n">
-        <v>612</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
@@ -15560,22 +15536,14 @@
         <v>615.0333333333333</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>610</v>
-      </c>
-      <c r="K433" t="n">
-        <v>612</v>
-      </c>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15603,452 +15571,370 @@
         <v>614.9</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>609</v>
-      </c>
-      <c r="K434" t="n">
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
+      <c r="M434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>606</v>
+      </c>
+      <c r="C435" t="n">
+        <v>604</v>
+      </c>
+      <c r="D435" t="n">
+        <v>606</v>
+      </c>
+      <c r="E435" t="n">
+        <v>604</v>
+      </c>
+      <c r="F435" t="n">
+        <v>6169.6734</v>
+      </c>
+      <c r="G435" t="n">
+        <v>614.6166666666667</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
+      <c r="M435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>604</v>
+      </c>
+      <c r="C436" t="n">
+        <v>602</v>
+      </c>
+      <c r="D436" t="n">
+        <v>604</v>
+      </c>
+      <c r="E436" t="n">
+        <v>602</v>
+      </c>
+      <c r="F436" t="n">
+        <v>3319.2631</v>
+      </c>
+      <c r="G436" t="n">
+        <v>614.3</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
+      <c r="M436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>602</v>
+      </c>
+      <c r="C437" t="n">
+        <v>602</v>
+      </c>
+      <c r="D437" t="n">
+        <v>602</v>
+      </c>
+      <c r="E437" t="n">
+        <v>601</v>
+      </c>
+      <c r="F437" t="n">
+        <v>2374.6473</v>
+      </c>
+      <c r="G437" t="n">
+        <v>614.1</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
+      <c r="M437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>602</v>
+      </c>
+      <c r="C438" t="n">
+        <v>602</v>
+      </c>
+      <c r="D438" t="n">
+        <v>602</v>
+      </c>
+      <c r="E438" t="n">
+        <v>602</v>
+      </c>
+      <c r="F438" t="n">
+        <v>7702.7512</v>
+      </c>
+      <c r="G438" t="n">
+        <v>613.85</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0</v>
+      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
+      <c r="M438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>602</v>
+      </c>
+      <c r="C439" t="n">
+        <v>602</v>
+      </c>
+      <c r="D439" t="n">
+        <v>602</v>
+      </c>
+      <c r="E439" t="n">
+        <v>602</v>
+      </c>
+      <c r="F439" t="n">
+        <v>2009.7192</v>
+      </c>
+      <c r="G439" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
+      <c r="M439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>602</v>
+      </c>
+      <c r="C440" t="n">
         <v>612</v>
       </c>
-      <c r="L434" t="inlineStr">
+      <c r="D440" t="n">
+        <v>612</v>
+      </c>
+      <c r="E440" t="n">
+        <v>602</v>
+      </c>
+      <c r="F440" t="n">
+        <v>1433</v>
+      </c>
+      <c r="G440" t="n">
+        <v>613.5166666666667</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
+      <c r="M440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>611</v>
+      </c>
+      <c r="C441" t="n">
+        <v>611</v>
+      </c>
+      <c r="D441" t="n">
+        <v>611</v>
+      </c>
+      <c r="E441" t="n">
+        <v>611</v>
+      </c>
+      <c r="F441" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="G441" t="n">
+        <v>613.45</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0</v>
+      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
+      <c r="M441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>605</v>
+      </c>
+      <c r="C442" t="n">
+        <v>613</v>
+      </c>
+      <c r="D442" t="n">
+        <v>613</v>
+      </c>
+      <c r="E442" t="n">
+        <v>605</v>
+      </c>
+      <c r="F442" t="n">
+        <v>102.383</v>
+      </c>
+      <c r="G442" t="n">
+        <v>613.4666666666667</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0</v>
+      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
+      <c r="M442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>612</v>
+      </c>
+      <c r="C443" t="n">
+        <v>612</v>
+      </c>
+      <c r="D443" t="n">
+        <v>612</v>
+      </c>
+      <c r="E443" t="n">
+        <v>612</v>
+      </c>
+      <c r="F443" t="n">
+        <v>1</v>
+      </c>
+      <c r="G443" t="n">
+        <v>613.3333333333334</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0</v>
+      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
+      <c r="M443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>611</v>
+      </c>
+      <c r="C444" t="n">
+        <v>612</v>
+      </c>
+      <c r="D444" t="n">
+        <v>612</v>
+      </c>
+      <c r="E444" t="n">
+        <v>611</v>
+      </c>
+      <c r="F444" t="n">
+        <v>3242.124</v>
+      </c>
+      <c r="G444" t="n">
+        <v>613.3333333333334</v>
+      </c>
+      <c r="H444" t="n">
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
+      </c>
+      <c r="J444" t="n">
+        <v>612</v>
+      </c>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M434" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>606</v>
-      </c>
-      <c r="C435" t="n">
-        <v>604</v>
-      </c>
-      <c r="D435" t="n">
-        <v>606</v>
-      </c>
-      <c r="E435" t="n">
-        <v>604</v>
-      </c>
-      <c r="F435" t="n">
-        <v>6169.6734</v>
-      </c>
-      <c r="G435" t="n">
-        <v>614.6166666666667</v>
-      </c>
-      <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>0</v>
-      </c>
-      <c r="J435" t="n">
-        <v>606</v>
-      </c>
-      <c r="K435" t="n">
-        <v>612</v>
-      </c>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M435" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>604</v>
-      </c>
-      <c r="C436" t="n">
-        <v>602</v>
-      </c>
-      <c r="D436" t="n">
-        <v>604</v>
-      </c>
-      <c r="E436" t="n">
-        <v>602</v>
-      </c>
-      <c r="F436" t="n">
-        <v>3319.2631</v>
-      </c>
-      <c r="G436" t="n">
-        <v>614.3</v>
-      </c>
-      <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>0</v>
-      </c>
-      <c r="J436" t="n">
-        <v>604</v>
-      </c>
-      <c r="K436" t="n">
-        <v>612</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M436" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>602</v>
-      </c>
-      <c r="C437" t="n">
-        <v>602</v>
-      </c>
-      <c r="D437" t="n">
-        <v>602</v>
-      </c>
-      <c r="E437" t="n">
-        <v>601</v>
-      </c>
-      <c r="F437" t="n">
-        <v>2374.6473</v>
-      </c>
-      <c r="G437" t="n">
-        <v>614.1</v>
-      </c>
-      <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>0</v>
-      </c>
-      <c r="J437" t="n">
-        <v>602</v>
-      </c>
-      <c r="K437" t="n">
-        <v>612</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M437" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>602</v>
-      </c>
-      <c r="C438" t="n">
-        <v>602</v>
-      </c>
-      <c r="D438" t="n">
-        <v>602</v>
-      </c>
-      <c r="E438" t="n">
-        <v>602</v>
-      </c>
-      <c r="F438" t="n">
-        <v>7702.7512</v>
-      </c>
-      <c r="G438" t="n">
-        <v>613.85</v>
-      </c>
-      <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>0</v>
-      </c>
-      <c r="J438" t="n">
-        <v>602</v>
-      </c>
-      <c r="K438" t="n">
-        <v>612</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M438" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>602</v>
-      </c>
-      <c r="C439" t="n">
-        <v>602</v>
-      </c>
-      <c r="D439" t="n">
-        <v>602</v>
-      </c>
-      <c r="E439" t="n">
-        <v>602</v>
-      </c>
-      <c r="F439" t="n">
-        <v>2009.7192</v>
-      </c>
-      <c r="G439" t="n">
-        <v>613.6</v>
-      </c>
-      <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>0</v>
-      </c>
-      <c r="J439" t="n">
-        <v>602</v>
-      </c>
-      <c r="K439" t="n">
-        <v>612</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M439" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>602</v>
-      </c>
-      <c r="C440" t="n">
-        <v>612</v>
-      </c>
-      <c r="D440" t="n">
-        <v>612</v>
-      </c>
-      <c r="E440" t="n">
-        <v>602</v>
-      </c>
-      <c r="F440" t="n">
-        <v>1433</v>
-      </c>
-      <c r="G440" t="n">
-        <v>613.5166666666667</v>
-      </c>
-      <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>0</v>
-      </c>
-      <c r="J440" t="n">
-        <v>602</v>
-      </c>
-      <c r="K440" t="n">
-        <v>612</v>
-      </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M440" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>611</v>
-      </c>
-      <c r="C441" t="n">
-        <v>611</v>
-      </c>
-      <c r="D441" t="n">
-        <v>611</v>
-      </c>
-      <c r="E441" t="n">
-        <v>611</v>
-      </c>
-      <c r="F441" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="G441" t="n">
-        <v>613.45</v>
-      </c>
-      <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>0</v>
-      </c>
-      <c r="J441" t="n">
-        <v>611</v>
-      </c>
-      <c r="K441" t="n">
-        <v>612</v>
-      </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M441" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>605</v>
-      </c>
-      <c r="C442" t="n">
-        <v>613</v>
-      </c>
-      <c r="D442" t="n">
-        <v>613</v>
-      </c>
-      <c r="E442" t="n">
-        <v>605</v>
-      </c>
-      <c r="F442" t="n">
-        <v>102.383</v>
-      </c>
-      <c r="G442" t="n">
-        <v>613.4666666666667</v>
-      </c>
-      <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>0</v>
-      </c>
-      <c r="J442" t="n">
-        <v>605</v>
-      </c>
-      <c r="K442" t="n">
-        <v>612</v>
-      </c>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M442" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>612</v>
-      </c>
-      <c r="C443" t="n">
-        <v>612</v>
-      </c>
-      <c r="D443" t="n">
-        <v>612</v>
-      </c>
-      <c r="E443" t="n">
-        <v>612</v>
-      </c>
-      <c r="F443" t="n">
-        <v>1</v>
-      </c>
-      <c r="G443" t="n">
-        <v>613.3333333333334</v>
-      </c>
-      <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>0</v>
-      </c>
-      <c r="J443" t="n">
-        <v>612</v>
-      </c>
-      <c r="K443" t="n">
-        <v>612</v>
-      </c>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M443" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>611</v>
-      </c>
-      <c r="C444" t="n">
-        <v>612</v>
-      </c>
-      <c r="D444" t="n">
-        <v>612</v>
-      </c>
-      <c r="E444" t="n">
-        <v>611</v>
-      </c>
-      <c r="F444" t="n">
-        <v>3242.124</v>
-      </c>
-      <c r="G444" t="n">
-        <v>613.3333333333334</v>
-      </c>
-      <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>0</v>
-      </c>
-      <c r="J444" t="n">
-        <v>611</v>
-      </c>
-      <c r="K444" t="n">
-        <v>612</v>
-      </c>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16084,9 +15970,7 @@
       <c r="J445" t="n">
         <v>612</v>
       </c>
-      <c r="K445" t="n">
-        <v>612</v>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16119,17 +16003,13 @@
         <v>613.0666666666667</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>612</v>
-      </c>
-      <c r="K446" t="n">
-        <v>612</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16162,17 +16042,13 @@
         <v>612.9166666666666</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>612</v>
-      </c>
-      <c r="K447" t="n">
-        <v>612</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16205,17 +16081,13 @@
         <v>612.75</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>611</v>
-      </c>
-      <c r="K448" t="n">
-        <v>612</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16248,17 +16120,13 @@
         <v>612.6</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>611</v>
-      </c>
-      <c r="K449" t="n">
-        <v>612</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16291,17 +16159,13 @@
         <v>612.6</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>612</v>
-      </c>
-      <c r="K450" t="n">
-        <v>612</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16334,17 +16198,13 @@
         <v>612.5833333333334</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>612</v>
-      </c>
-      <c r="K451" t="n">
-        <v>612</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16377,17 +16237,13 @@
         <v>612.5833333333334</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>612</v>
-      </c>
-      <c r="K452" t="n">
-        <v>612</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16420,17 +16276,13 @@
         <v>612.5833333333334</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>613</v>
-      </c>
-      <c r="K453" t="n">
-        <v>612</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16463,17 +16315,13 @@
         <v>612.5833333333334</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>613</v>
-      </c>
-      <c r="K454" t="n">
-        <v>612</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16506,17 +16354,13 @@
         <v>612.6166666666667</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>615</v>
-      </c>
-      <c r="K455" t="n">
-        <v>612</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16549,17 +16393,13 @@
         <v>612.6</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>613</v>
-      </c>
-      <c r="K456" t="n">
-        <v>612</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16592,17 +16432,13 @@
         <v>612.6</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>614</v>
-      </c>
-      <c r="K457" t="n">
-        <v>612</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16635,17 +16471,13 @@
         <v>612.5333333333333</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>615</v>
-      </c>
-      <c r="K458" t="n">
-        <v>612</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16678,17 +16510,13 @@
         <v>612.4833333333333</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>616</v>
-      </c>
-      <c r="K459" t="n">
-        <v>612</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16721,17 +16549,13 @@
         <v>612.45</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>616</v>
-      </c>
-      <c r="K460" t="n">
-        <v>612</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16770,9 +16594,7 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>612</v>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16811,9 +16633,7 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>612</v>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16852,9 +16672,7 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>612</v>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16893,9 +16711,7 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>612</v>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16934,9 +16750,7 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>612</v>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16975,9 +16789,7 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>612</v>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17016,9 +16828,7 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>612</v>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17057,9 +16867,7 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>612</v>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17098,9 +16906,7 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>612</v>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17139,9 +16945,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>612</v>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17180,9 +16984,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>612</v>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17221,9 +17023,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>612</v>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17262,9 +17062,7 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>612</v>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17303,9 +17101,7 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>612</v>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17344,9 +17140,7 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>612</v>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17385,9 +17179,7 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>612</v>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17426,9 +17218,7 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>612</v>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17467,9 +17257,7 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>612</v>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17508,9 +17296,7 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>612</v>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17549,9 +17335,7 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>612</v>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17590,9 +17374,7 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>612</v>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17628,19 +17410,17 @@
         <v>0</v>
       </c>
       <c r="I482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>612</v>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>1.026045751633987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -17669,11 +17449,15 @@
         <v>0</v>
       </c>
       <c r="I483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17704,11 +17488,15 @@
         <v>0</v>
       </c>
       <c r="I484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17739,11 +17527,15 @@
         <v>0</v>
       </c>
       <c r="I485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17774,11 +17566,15 @@
         <v>0</v>
       </c>
       <c r="I486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +17605,15 @@
         <v>0</v>
       </c>
       <c r="I487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17844,11 +17644,15 @@
         <v>0</v>
       </c>
       <c r="I488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17883,7 +17687,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17918,7 +17726,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17953,7 +17765,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17988,7 +17804,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18023,7 +17843,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18058,7 +17882,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18093,7 +17921,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18128,7 +17960,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18163,7 +17999,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18198,7 +18038,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18233,7 +18077,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18268,7 +18116,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18303,7 +18155,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18338,7 +18194,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18373,7 +18233,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18408,7 +18272,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18436,18 +18304,16 @@
         <v>619.0333333333333</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>613</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M505" t="n">
@@ -18477,14 +18343,12 @@
         <v>618.9666666666667</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>608</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr">
         <is>
@@ -18518,14 +18382,12 @@
         <v>618.9166666666666</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>609</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr">
         <is>
@@ -18559,14 +18421,12 @@
         <v>618.8833333333333</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
-        <v>609</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr">
         <is>
@@ -18606,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="J509" t="n">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
@@ -18688,7 +18548,7 @@
         <v>0</v>
       </c>
       <c r="J511" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr">

--- a/BackTest/2019-10-14 BackTest PPT.xlsx
+++ b/BackTest/2019-10-14 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>890.6579999999997</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1227.1956</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>595</v>
@@ -521,7 +521,7 @@
         <v>1228.1956</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>598</v>
@@ -562,9 +562,11 @@
         <v>1227.1956</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>606</v>
+      </c>
       <c r="J5" t="n">
         <v>595</v>
       </c>
@@ -601,11 +603,19 @@
         <v>2335.6956</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>594</v>
+      </c>
+      <c r="J6" t="n">
+        <v>595</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,11 +644,19 @@
         <v>2263.279</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>595</v>
+      </c>
+      <c r="J7" t="n">
+        <v>595</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -667,15 +685,17 @@
         <v>1906.1957</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>594</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>595</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -706,12 +726,14 @@
         <v>834.9457999999995</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>591</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>595</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -745,12 +767,14 @@
         <v>2308.071199999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>590</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>595</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -784,12 +808,14 @@
         <v>2992.671199999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>602</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>595</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -823,12 +849,14 @@
         <v>7145.5008</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>605</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>595</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -862,10 +890,14 @@
         <v>7675.0389</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>612</v>
+      </c>
+      <c r="J13" t="n">
+        <v>595</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -902,7 +934,9 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>595</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -939,7 +973,9 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>595</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -976,7 +1012,9 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>595</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1013,7 +1051,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>595</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1050,7 +1090,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>595</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1087,7 +1129,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>595</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1124,7 +1168,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>595</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1161,7 +1207,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>595</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1198,7 +1246,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>595</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1235,7 +1285,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>595</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1272,7 +1324,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>595</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1309,7 +1363,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>595</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1346,7 +1402,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>595</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1383,7 +1441,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>595</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1420,7 +1480,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>595</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1457,7 +1519,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>595</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1494,7 +1558,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>595</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1531,7 +1597,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>595</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1568,7 +1636,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>595</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1605,7 +1675,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>595</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1642,7 +1714,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>595</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1679,7 +1753,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>595</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1716,7 +1792,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>595</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1753,7 +1831,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>595</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1790,7 +1870,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>595</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1827,7 +1909,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>595</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1864,7 +1948,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>595</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1901,7 +1987,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>595</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1938,7 +2026,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>595</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1975,7 +2065,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>595</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2012,7 +2104,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>595</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2049,7 +2143,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>595</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2086,7 +2182,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>595</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2123,7 +2221,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>595</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2160,7 +2260,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>595</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2197,7 +2299,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>595</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2234,7 +2338,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>595</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2271,7 +2377,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>595</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2308,7 +2416,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>595</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2345,7 +2455,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>595</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2382,7 +2494,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>595</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2419,7 +2533,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>595</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2453,644 +2569,764 @@
         <v>91951.83349999999</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>595</v>
+      </c>
       <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>659</v>
+      </c>
+      <c r="C57" t="n">
+        <v>655</v>
+      </c>
+      <c r="D57" t="n">
+        <v>665</v>
+      </c>
+      <c r="E57" t="n">
+        <v>654</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4451.2479</v>
+      </c>
+      <c r="G57" t="n">
+        <v>87500.58559999999</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>595</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>655</v>
+      </c>
+      <c r="C58" t="n">
+        <v>656</v>
+      </c>
+      <c r="D58" t="n">
+        <v>665</v>
+      </c>
+      <c r="E58" t="n">
+        <v>654</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5616.4206</v>
+      </c>
+      <c r="G58" t="n">
+        <v>93117.00619999999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>595</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>656</v>
+      </c>
+      <c r="C59" t="n">
+        <v>656</v>
+      </c>
+      <c r="D59" t="n">
+        <v>656</v>
+      </c>
+      <c r="E59" t="n">
+        <v>656</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2238.6067</v>
+      </c>
+      <c r="G59" t="n">
+        <v>93117.00619999999</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>595</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>656</v>
+      </c>
+      <c r="C60" t="n">
+        <v>663</v>
+      </c>
+      <c r="D60" t="n">
+        <v>664</v>
+      </c>
+      <c r="E60" t="n">
+        <v>656</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2318.1719</v>
+      </c>
+      <c r="G60" t="n">
+        <v>95435.17809999999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>595</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>656</v>
+      </c>
+      <c r="C61" t="n">
+        <v>670</v>
+      </c>
+      <c r="D61" t="n">
+        <v>670</v>
+      </c>
+      <c r="E61" t="n">
+        <v>656</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7802.1178</v>
+      </c>
+      <c r="G61" t="n">
+        <v>103237.2959</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>595</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>669</v>
+      </c>
+      <c r="C62" t="n">
+        <v>670</v>
+      </c>
+      <c r="D62" t="n">
+        <v>670</v>
+      </c>
+      <c r="E62" t="n">
+        <v>669</v>
+      </c>
+      <c r="F62" t="n">
+        <v>839</v>
+      </c>
+      <c r="G62" t="n">
+        <v>103237.2959</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>595</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>670</v>
+      </c>
+      <c r="C63" t="n">
+        <v>663</v>
+      </c>
+      <c r="D63" t="n">
+        <v>670</v>
+      </c>
+      <c r="E63" t="n">
+        <v>661</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4139.4665</v>
+      </c>
+      <c r="G63" t="n">
+        <v>99097.8294</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>595</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>663</v>
+      </c>
+      <c r="C64" t="n">
+        <v>659</v>
+      </c>
+      <c r="D64" t="n">
+        <v>663</v>
+      </c>
+      <c r="E64" t="n">
+        <v>659</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2430.4303</v>
+      </c>
+      <c r="G64" t="n">
+        <v>96667.39910000001</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>595</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>649</v>
+      </c>
+      <c r="C65" t="n">
+        <v>658</v>
+      </c>
+      <c r="D65" t="n">
+        <v>658</v>
+      </c>
+      <c r="E65" t="n">
+        <v>649</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="n">
+        <v>96659.39910000001</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>595</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>652</v>
+      </c>
+      <c r="C66" t="n">
+        <v>649</v>
+      </c>
+      <c r="D66" t="n">
+        <v>652</v>
+      </c>
+      <c r="E66" t="n">
+        <v>649</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25.1651</v>
+      </c>
+      <c r="G66" t="n">
+        <v>96634.23400000001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>595</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>648</v>
+      </c>
+      <c r="C67" t="n">
+        <v>648</v>
+      </c>
+      <c r="D67" t="n">
+        <v>648</v>
+      </c>
+      <c r="E67" t="n">
+        <v>642</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3712.1488</v>
+      </c>
+      <c r="G67" t="n">
+        <v>92922.08520000002</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>595</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>641</v>
+      </c>
+      <c r="C68" t="n">
+        <v>658</v>
+      </c>
+      <c r="D68" t="n">
+        <v>658</v>
+      </c>
+      <c r="E68" t="n">
+        <v>641</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3853.4973</v>
+      </c>
+      <c r="G68" t="n">
+        <v>96775.58250000002</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>595</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>658</v>
+      </c>
+      <c r="C69" t="n">
+        <v>667</v>
+      </c>
+      <c r="D69" t="n">
+        <v>667</v>
+      </c>
+      <c r="E69" t="n">
+        <v>658</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2810.3709</v>
+      </c>
+      <c r="G69" t="n">
+        <v>99585.95340000001</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>595</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>667</v>
+      </c>
+      <c r="C70" t="n">
+        <v>667</v>
+      </c>
+      <c r="D70" t="n">
+        <v>667</v>
+      </c>
+      <c r="E70" t="n">
+        <v>667</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1005.949</v>
+      </c>
+      <c r="G70" t="n">
+        <v>99585.95340000001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>595</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>659</v>
+      </c>
+      <c r="C71" t="n">
+        <v>666</v>
+      </c>
+      <c r="D71" t="n">
+        <v>666</v>
+      </c>
+      <c r="E71" t="n">
+        <v>659</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1650.877</v>
+      </c>
+      <c r="G71" t="n">
+        <v>97935.07640000002</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>595</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>664</v>
+      </c>
+      <c r="C72" t="n">
+        <v>664</v>
+      </c>
+      <c r="D72" t="n">
+        <v>664</v>
+      </c>
+      <c r="E72" t="n">
+        <v>664</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>97934.07640000002</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>595</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>664</v>
+      </c>
+      <c r="C73" t="n">
+        <v>664</v>
+      </c>
+      <c r="D73" t="n">
+        <v>664</v>
+      </c>
+      <c r="E73" t="n">
+        <v>664</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1511.4441</v>
+      </c>
+      <c r="G73" t="n">
+        <v>97934.07640000002</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>595</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>661</v>
+      </c>
+      <c r="C74" t="n">
+        <v>661</v>
+      </c>
+      <c r="D74" t="n">
+        <v>661</v>
+      </c>
+      <c r="E74" t="n">
+        <v>661</v>
+      </c>
+      <c r="F74" t="n">
+        <v>25</v>
+      </c>
+      <c r="G74" t="n">
+        <v>97909.07640000002</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>595</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>664</v>
+      </c>
+      <c r="C75" t="n">
+        <v>665</v>
+      </c>
+      <c r="D75" t="n">
+        <v>665</v>
+      </c>
+      <c r="E75" t="n">
+        <v>664</v>
+      </c>
+      <c r="F75" t="n">
+        <v>855.2705999999999</v>
+      </c>
+      <c r="G75" t="n">
+        <v>98764.34700000002</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>595</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>659</v>
-      </c>
-      <c r="C57" t="n">
-        <v>655</v>
-      </c>
-      <c r="D57" t="n">
-        <v>665</v>
-      </c>
-      <c r="E57" t="n">
-        <v>654</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4451.2479</v>
-      </c>
-      <c r="G57" t="n">
-        <v>87500.58559999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>655</v>
-      </c>
-      <c r="C58" t="n">
-        <v>656</v>
-      </c>
-      <c r="D58" t="n">
-        <v>665</v>
-      </c>
-      <c r="E58" t="n">
-        <v>654</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5616.4206</v>
-      </c>
-      <c r="G58" t="n">
-        <v>93117.00619999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>656</v>
-      </c>
-      <c r="C59" t="n">
-        <v>656</v>
-      </c>
-      <c r="D59" t="n">
-        <v>656</v>
-      </c>
-      <c r="E59" t="n">
-        <v>656</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2238.6067</v>
-      </c>
-      <c r="G59" t="n">
-        <v>93117.00619999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>656</v>
-      </c>
-      <c r="C60" t="n">
-        <v>663</v>
-      </c>
-      <c r="D60" t="n">
-        <v>664</v>
-      </c>
-      <c r="E60" t="n">
-        <v>656</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2318.1719</v>
-      </c>
-      <c r="G60" t="n">
-        <v>95435.17809999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>656</v>
-      </c>
-      <c r="C61" t="n">
-        <v>670</v>
-      </c>
-      <c r="D61" t="n">
-        <v>670</v>
-      </c>
-      <c r="E61" t="n">
-        <v>656</v>
-      </c>
-      <c r="F61" t="n">
-        <v>7802.1178</v>
-      </c>
-      <c r="G61" t="n">
-        <v>103237.2959</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>669</v>
-      </c>
-      <c r="C62" t="n">
-        <v>670</v>
-      </c>
-      <c r="D62" t="n">
-        <v>670</v>
-      </c>
-      <c r="E62" t="n">
-        <v>669</v>
-      </c>
-      <c r="F62" t="n">
-        <v>839</v>
-      </c>
-      <c r="G62" t="n">
-        <v>103237.2959</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>670</v>
-      </c>
-      <c r="C63" t="n">
-        <v>663</v>
-      </c>
-      <c r="D63" t="n">
-        <v>670</v>
-      </c>
-      <c r="E63" t="n">
-        <v>661</v>
-      </c>
-      <c r="F63" t="n">
-        <v>4139.4665</v>
-      </c>
-      <c r="G63" t="n">
-        <v>99097.8294</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>663</v>
-      </c>
-      <c r="C64" t="n">
-        <v>659</v>
-      </c>
-      <c r="D64" t="n">
-        <v>663</v>
-      </c>
-      <c r="E64" t="n">
-        <v>659</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2430.4303</v>
-      </c>
-      <c r="G64" t="n">
-        <v>96667.39910000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>649</v>
-      </c>
-      <c r="C65" t="n">
-        <v>658</v>
-      </c>
-      <c r="D65" t="n">
-        <v>658</v>
-      </c>
-      <c r="E65" t="n">
-        <v>649</v>
-      </c>
-      <c r="F65" t="n">
-        <v>8</v>
-      </c>
-      <c r="G65" t="n">
-        <v>96659.39910000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>652</v>
-      </c>
-      <c r="C66" t="n">
-        <v>649</v>
-      </c>
-      <c r="D66" t="n">
-        <v>652</v>
-      </c>
-      <c r="E66" t="n">
-        <v>649</v>
-      </c>
-      <c r="F66" t="n">
-        <v>25.1651</v>
-      </c>
-      <c r="G66" t="n">
-        <v>96634.23400000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>648</v>
-      </c>
-      <c r="C67" t="n">
-        <v>648</v>
-      </c>
-      <c r="D67" t="n">
-        <v>648</v>
-      </c>
-      <c r="E67" t="n">
-        <v>642</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3712.1488</v>
-      </c>
-      <c r="G67" t="n">
-        <v>92922.08520000002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>641</v>
-      </c>
-      <c r="C68" t="n">
-        <v>658</v>
-      </c>
-      <c r="D68" t="n">
-        <v>658</v>
-      </c>
-      <c r="E68" t="n">
-        <v>641</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3853.4973</v>
-      </c>
-      <c r="G68" t="n">
-        <v>96775.58250000002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>658</v>
-      </c>
-      <c r="C69" t="n">
-        <v>667</v>
-      </c>
-      <c r="D69" t="n">
-        <v>667</v>
-      </c>
-      <c r="E69" t="n">
-        <v>658</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2810.3709</v>
-      </c>
-      <c r="G69" t="n">
-        <v>99585.95340000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>667</v>
-      </c>
-      <c r="C70" t="n">
-        <v>667</v>
-      </c>
-      <c r="D70" t="n">
-        <v>667</v>
-      </c>
-      <c r="E70" t="n">
-        <v>667</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1005.949</v>
-      </c>
-      <c r="G70" t="n">
-        <v>99585.95340000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>659</v>
-      </c>
-      <c r="C71" t="n">
-        <v>666</v>
-      </c>
-      <c r="D71" t="n">
-        <v>666</v>
-      </c>
-      <c r="E71" t="n">
-        <v>659</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1650.877</v>
-      </c>
-      <c r="G71" t="n">
-        <v>97935.07640000002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>664</v>
-      </c>
-      <c r="C72" t="n">
-        <v>664</v>
-      </c>
-      <c r="D72" t="n">
-        <v>664</v>
-      </c>
-      <c r="E72" t="n">
-        <v>664</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" t="n">
-        <v>97934.07640000002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>664</v>
-      </c>
-      <c r="C73" t="n">
-        <v>664</v>
-      </c>
-      <c r="D73" t="n">
-        <v>664</v>
-      </c>
-      <c r="E73" t="n">
-        <v>664</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1511.4441</v>
-      </c>
-      <c r="G73" t="n">
-        <v>97934.07640000002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>661</v>
-      </c>
-      <c r="C74" t="n">
-        <v>661</v>
-      </c>
-      <c r="D74" t="n">
-        <v>661</v>
-      </c>
-      <c r="E74" t="n">
-        <v>661</v>
-      </c>
-      <c r="F74" t="n">
-        <v>25</v>
-      </c>
-      <c r="G74" t="n">
-        <v>97909.07640000002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>664</v>
-      </c>
-      <c r="C75" t="n">
-        <v>665</v>
-      </c>
-      <c r="D75" t="n">
-        <v>665</v>
-      </c>
-      <c r="E75" t="n">
-        <v>664</v>
-      </c>
-      <c r="F75" t="n">
-        <v>855.2705999999999</v>
-      </c>
-      <c r="G75" t="n">
-        <v>98764.34700000002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>1.11264705882353</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.02020202020202</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3115,7 +3351,7 @@
         <v>98736.16150000002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3181,7 +3417,7 @@
         <v>97727.86930000002</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3214,7 +3450,7 @@
         <v>94875.37980000002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3247,7 +3483,7 @@
         <v>93036.09090000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3280,7 +3516,7 @@
         <v>93582.66210000003</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3313,7 +3549,7 @@
         <v>93382.16210000003</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3346,7 +3582,7 @@
         <v>93382.16210000003</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3379,7 +3615,7 @@
         <v>92528.90470000003</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3412,7 +3648,7 @@
         <v>79745.16780000002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3478,7 +3714,7 @@
         <v>80326.43880000003</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3511,7 +3747,7 @@
         <v>80326.43880000003</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3544,7 +3780,7 @@
         <v>80326.43880000003</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3577,7 +3813,7 @@
         <v>83493.85800000004</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3610,7 +3846,7 @@
         <v>82945.85800000004</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3643,7 +3879,7 @@
         <v>84920.32530000004</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3709,7 +3945,7 @@
         <v>85631.16000000005</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3742,7 +3978,7 @@
         <v>84867.46700000005</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3775,7 +4011,7 @@
         <v>88603.02140000004</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3808,7 +4044,7 @@
         <v>88305.19000000005</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3841,7 +4077,7 @@
         <v>90061.33270000004</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3874,7 +4110,7 @@
         <v>92331.61900000005</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4006,7 +4242,7 @@
         <v>89223.40390000006</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4270,7 +4506,7 @@
         <v>83880.03000000009</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4303,7 +4539,7 @@
         <v>83880.03000000009</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4336,7 +4572,7 @@
         <v>83880.03000000009</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4369,7 +4605,7 @@
         <v>83680.03000000009</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4402,7 +4638,7 @@
         <v>83680.03000000009</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4435,7 +4671,7 @@
         <v>83680.03000000009</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4468,7 +4704,7 @@
         <v>86638.11160000009</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4501,7 +4737,7 @@
         <v>84442.8409000001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4534,7 +4770,7 @@
         <v>83465.4700000001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4567,7 +4803,7 @@
         <v>89232.79730000011</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4600,7 +4836,7 @@
         <v>89232.79730000011</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4633,7 +4869,7 @@
         <v>90034.4829000001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4666,7 +4902,7 @@
         <v>89884.4829000001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4699,7 +4935,7 @@
         <v>90125.4829000001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4732,7 +4968,7 @@
         <v>90125.4829000001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4765,7 +5001,7 @@
         <v>99457.28660000011</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4798,7 +5034,7 @@
         <v>98216.1232000001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4831,7 +5067,7 @@
         <v>98247.1232000001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4864,7 +5100,7 @@
         <v>95904.1835000001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5194,7 +5430,7 @@
         <v>82649.47380000011</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5227,7 +5463,7 @@
         <v>82649.47380000011</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5260,7 +5496,7 @@
         <v>82261.62210000011</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5293,7 +5529,7 @@
         <v>82155.30620000011</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5326,7 +5562,7 @@
         <v>82155.30620000011</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5359,7 +5595,7 @@
         <v>87131.5984000001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5392,7 +5628,7 @@
         <v>87131.5984000001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5425,7 +5661,7 @@
         <v>87341.94830000011</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5458,7 +5694,7 @@
         <v>87343.5993000001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5491,7 +5727,7 @@
         <v>87343.5993000001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5524,7 +5760,7 @@
         <v>86767.3587000001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5557,7 +5793,7 @@
         <v>86929.6892000001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5590,7 +5826,7 @@
         <v>86480.34500000009</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5623,7 +5859,7 @@
         <v>86480.34500000009</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5656,7 +5892,7 @@
         <v>86480.34500000009</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5689,7 +5925,7 @@
         <v>86082.64700000008</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6547,7 +6783,7 @@
         <v>88126.08190000009</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6712,7 +6948,7 @@
         <v>97422.32790000008</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6844,7 +7080,7 @@
         <v>99439.39082976007</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6877,7 +7113,7 @@
         <v>99157.39082976007</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6910,7 +7146,7 @@
         <v>98963.99222976007</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6943,7 +7179,7 @@
         <v>98963.99222976007</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6976,7 +7212,7 @@
         <v>100005.0939297601</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7009,7 +7245,7 @@
         <v>99955.03012976007</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7042,7 +7278,7 @@
         <v>102511.8032297601</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7075,7 +7311,7 @@
         <v>102511.8032297601</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7141,7 +7377,7 @@
         <v>102511.8032297601</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7207,7 +7443,7 @@
         <v>106780.6611297601</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7240,7 +7476,7 @@
         <v>106780.6611297601</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7273,7 +7509,7 @@
         <v>106770.6611297601</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7306,7 +7542,7 @@
         <v>106926.8338297601</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7339,7 +7575,7 @@
         <v>106926.8338297601</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7603,7 +7839,7 @@
         <v>98387.90392976005</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -9880,7 +10116,7 @@
         <v>86262.07844529008</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10012,7 +10248,7 @@
         <v>87783.53134529009</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10408,7 +10644,7 @@
         <v>80679.28604529009</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10441,7 +10677,7 @@
         <v>80769.28604529009</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10507,7 +10743,7 @@
         <v>81235.2996452901</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10540,7 +10776,7 @@
         <v>80593.95514529009</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10573,7 +10809,7 @@
         <v>80621.46234529009</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10771,7 +11007,7 @@
         <v>80932.83204529008</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10804,7 +11040,7 @@
         <v>80933.83204529008</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10870,7 +11106,7 @@
         <v>83878.94074529008</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10903,7 +11139,7 @@
         <v>83878.94074529008</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10936,7 +11172,7 @@
         <v>83855.94074529008</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10969,7 +11205,7 @@
         <v>82987.12314529008</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11002,7 +11238,7 @@
         <v>83924.85314529008</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11035,7 +11271,7 @@
         <v>81602.56204529008</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11068,7 +11304,7 @@
         <v>81747.56204529008</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11233,7 +11469,7 @@
         <v>83684.17954529007</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11266,7 +11502,7 @@
         <v>83684.17954529007</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11299,7 +11535,7 @@
         <v>83785.90244529006</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11332,7 +11568,7 @@
         <v>82272.15334529006</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11365,7 +11601,7 @@
         <v>82272.15334529006</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11398,7 +11634,7 @@
         <v>81427.66724529007</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11431,7 +11667,7 @@
         <v>81770.64284529007</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11464,7 +11700,7 @@
         <v>81683.33604529007</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11497,7 +11733,7 @@
         <v>82183.33604529007</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11563,7 +11799,7 @@
         <v>82290.93254529007</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11596,7 +11832,7 @@
         <v>82290.93254529007</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11629,7 +11865,7 @@
         <v>80996.38024529007</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11662,7 +11898,7 @@
         <v>81112.08024529007</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11761,7 +11997,7 @@
         <v>79802.66754529007</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11794,7 +12030,7 @@
         <v>79622.66754529007</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11827,7 +12063,7 @@
         <v>79622.66754529007</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11860,7 +12096,7 @@
         <v>79345.22354529006</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11893,7 +12129,7 @@
         <v>78862.06934529006</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11926,7 +12162,7 @@
         <v>78862.06934529006</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12454,7 +12690,7 @@
         <v>89270.82823919006</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12520,7 +12756,7 @@
         <v>88830.00773919006</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12553,7 +12789,7 @@
         <v>88830.00773919006</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12586,7 +12822,7 @@
         <v>89147.46803919006</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12619,7 +12855,7 @@
         <v>87979.28623919006</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12652,7 +12888,7 @@
         <v>87614.04643919006</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12718,7 +12954,7 @@
         <v>88153.50403919005</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12784,7 +13020,7 @@
         <v>88154.50403919005</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12817,7 +13053,7 @@
         <v>88154.50403919005</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12850,7 +13086,7 @@
         <v>88154.50403919005</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12883,7 +13119,7 @@
         <v>88154.50403919005</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12916,7 +13152,7 @@
         <v>88154.50403919005</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12949,7 +13185,7 @@
         <v>88154.50403919005</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12982,7 +13218,7 @@
         <v>89242.62383919006</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13015,7 +13251,7 @@
         <v>93717.99643919006</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13048,7 +13284,7 @@
         <v>92906.80063919006</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13081,7 +13317,7 @@
         <v>91235.46173919005</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13114,7 +13350,7 @@
         <v>91235.46173919005</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13147,7 +13383,7 @@
         <v>89841.09843919006</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13180,7 +13416,7 @@
         <v>89870.50553919005</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13213,7 +13449,7 @@
         <v>89543.14363919005</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13246,7 +13482,7 @@
         <v>90043.14363919005</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13279,7 +13515,7 @@
         <v>89943.14363919005</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13312,7 +13548,7 @@
         <v>89943.14363919005</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13345,7 +13581,7 @@
         <v>89943.14363919005</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13378,7 +13614,7 @@
         <v>89944.14363919005</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13444,7 +13680,7 @@
         <v>89917.09243919005</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13477,7 +13713,7 @@
         <v>89417.09243919005</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13510,7 +13746,7 @@
         <v>90577.91143919005</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13543,7 +13779,7 @@
         <v>90184.91143919005</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13576,7 +13812,7 @@
         <v>89580.25353919005</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13609,7 +13845,7 @@
         <v>89580.25353919005</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13873,7 +14109,7 @@
         <v>82992.69203919005</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14005,7 +14241,7 @@
         <v>74330.45023919005</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -19758,6 +19994,6 @@
       <c r="M580" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest PPT.xlsx
+++ b/BackTest/2019-10-14 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,11 +562,9 @@
         <v>1227.1956</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>595</v>
       </c>
@@ -685,11 +683,9 @@
         <v>1906.1957</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>595</v>
       </c>
@@ -849,11 +845,9 @@
         <v>7145.5008</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>595</v>
       </c>
@@ -890,11 +884,9 @@
         <v>7675.0389</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>595</v>
       </c>
@@ -1945,7 +1937,7 @@
         <v>59409.8331</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
@@ -1953,13 +1945,15 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>1.05718487394958</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.02020202020202</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1984,17 +1978,11 @@
         <v>62493.2902</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>595</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2023,17 +2011,11 @@
         <v>63273.3662</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>595</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2062,17 +2044,11 @@
         <v>76537.34520000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>595</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2101,17 +2077,11 @@
         <v>89394.11680000002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>595</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2143,14 +2113,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>595</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2179,17 +2143,11 @@
         <v>78882.19610000002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>595</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2218,17 +2176,11 @@
         <v>72330.31640000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>595</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2257,17 +2209,11 @@
         <v>72331.31640000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>595</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2296,17 +2242,11 @@
         <v>81994.63770000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>595</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2335,17 +2275,11 @@
         <v>81226.49460000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>595</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2377,14 +2311,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>595</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2416,14 +2344,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>595</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2455,14 +2377,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>595</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2494,14 +2410,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>595</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2533,14 +2443,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>595</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2572,14 +2476,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>595</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2611,14 +2509,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>595</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2650,14 +2542,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>595</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2689,14 +2575,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>595</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2728,14 +2608,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>595</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2767,14 +2641,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>595</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2806,14 +2674,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>595</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2845,14 +2707,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>595</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2884,14 +2740,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>595</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2923,14 +2773,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>595</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2962,14 +2806,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>595</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3001,14 +2839,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>595</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3040,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>595</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3079,14 +2905,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>595</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3118,14 +2938,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>595</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3157,14 +2971,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>595</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3196,14 +3004,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>595</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3235,14 +3037,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>595</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3274,14 +3070,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>595</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3310,23 +3100,15 @@
         <v>98764.34700000002</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>595</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>1.11264705882353</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.02020202020202</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3351,7 +3133,7 @@
         <v>98736.16150000002</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3417,7 +3199,7 @@
         <v>97727.86930000002</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3450,7 +3232,7 @@
         <v>94875.37980000002</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3483,7 +3265,7 @@
         <v>93036.09090000002</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3516,7 +3298,7 @@
         <v>93582.66210000003</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3549,7 +3331,7 @@
         <v>93382.16210000003</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3582,7 +3364,7 @@
         <v>93382.16210000003</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3615,7 +3397,7 @@
         <v>92528.90470000003</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3648,7 +3430,7 @@
         <v>79745.16780000002</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3714,7 +3496,7 @@
         <v>80326.43880000003</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3747,7 +3529,7 @@
         <v>80326.43880000003</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3780,7 +3562,7 @@
         <v>80326.43880000003</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3813,7 +3595,7 @@
         <v>83493.85800000004</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3846,7 +3628,7 @@
         <v>82945.85800000004</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3879,7 +3661,7 @@
         <v>84920.32530000004</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3945,7 +3727,7 @@
         <v>85631.16000000005</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3978,7 +3760,7 @@
         <v>84867.46700000005</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4011,7 +3793,7 @@
         <v>88603.02140000004</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4044,7 +3826,7 @@
         <v>88305.19000000005</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4077,7 +3859,7 @@
         <v>90061.33270000004</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4110,7 +3892,7 @@
         <v>92331.61900000005</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4242,7 +4024,7 @@
         <v>89223.40390000006</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4506,7 +4288,7 @@
         <v>83880.03000000009</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4539,7 +4321,7 @@
         <v>83880.03000000009</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4572,7 +4354,7 @@
         <v>83880.03000000009</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4605,7 +4387,7 @@
         <v>83680.03000000009</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4638,7 +4420,7 @@
         <v>83680.03000000009</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4671,7 +4453,7 @@
         <v>83680.03000000009</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4704,7 +4486,7 @@
         <v>86638.11160000009</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4737,7 +4519,7 @@
         <v>84442.8409000001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4770,7 +4552,7 @@
         <v>83465.4700000001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4803,7 +4585,7 @@
         <v>89232.79730000011</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4836,7 +4618,7 @@
         <v>89232.79730000011</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4869,7 +4651,7 @@
         <v>90034.4829000001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4902,7 +4684,7 @@
         <v>89884.4829000001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4935,7 +4717,7 @@
         <v>90125.4829000001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4968,7 +4750,7 @@
         <v>90125.4829000001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5001,7 +4783,7 @@
         <v>99457.28660000011</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5034,7 +4816,7 @@
         <v>98216.1232000001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5067,7 +4849,7 @@
         <v>98247.1232000001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5100,7 +4882,7 @@
         <v>95904.1835000001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5430,7 +5212,7 @@
         <v>82649.47380000011</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5463,7 +5245,7 @@
         <v>82649.47380000011</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5496,7 +5278,7 @@
         <v>82261.62210000011</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5529,7 +5311,7 @@
         <v>82155.30620000011</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5562,7 +5344,7 @@
         <v>82155.30620000011</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5595,7 +5377,7 @@
         <v>87131.5984000001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5628,7 +5410,7 @@
         <v>87131.5984000001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5661,7 +5443,7 @@
         <v>87341.94830000011</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5694,7 +5476,7 @@
         <v>87343.5993000001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5727,7 +5509,7 @@
         <v>87343.5993000001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5760,7 +5542,7 @@
         <v>86767.3587000001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5793,7 +5575,7 @@
         <v>86929.6892000001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5826,7 +5608,7 @@
         <v>86480.34500000009</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5859,7 +5641,7 @@
         <v>86480.34500000009</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5892,7 +5674,7 @@
         <v>86480.34500000009</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5925,7 +5707,7 @@
         <v>86082.64700000008</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -19994,6 +19776,6 @@
       <c r="M580" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest PPT.xlsx
+++ b/BackTest/2019-10-14 BackTest PPT.xlsx
@@ -562,9 +562,11 @@
         <v>1227.1956</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>606</v>
+      </c>
       <c r="J5" t="n">
         <v>595</v>
       </c>
@@ -683,9 +685,11 @@
         <v>1906.1957</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>594</v>
+      </c>
       <c r="J8" t="n">
         <v>595</v>
       </c>
@@ -845,9 +849,11 @@
         <v>7145.5008</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>605</v>
+      </c>
       <c r="J12" t="n">
         <v>595</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>59409.8331</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
@@ -1945,15 +1951,13 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.05718487394958</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.02020202020202</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1978,11 +1982,17 @@
         <v>62493.2902</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>595</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2011,11 +2021,17 @@
         <v>63273.3662</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>595</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2044,11 +2060,17 @@
         <v>76537.34520000001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>595</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2077,11 +2099,17 @@
         <v>89394.11680000002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>595</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2113,8 +2141,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>595</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2143,11 +2177,17 @@
         <v>78882.19610000002</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>595</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2176,11 +2216,17 @@
         <v>72330.31640000001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>595</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2209,11 +2255,17 @@
         <v>72331.31640000001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>595</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2242,11 +2294,17 @@
         <v>81994.63770000001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>595</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2275,11 +2333,17 @@
         <v>81226.49460000001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>595</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2311,8 +2375,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>595</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2344,8 +2414,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>595</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2377,8 +2453,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>595</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2410,8 +2492,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>595</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2443,8 +2531,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>595</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2476,8 +2570,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>595</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2509,8 +2609,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>595</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2542,8 +2648,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>595</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2575,8 +2687,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>595</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2608,8 +2726,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>595</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2641,8 +2765,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>595</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2674,8 +2804,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>595</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2704,15 +2840,23 @@
         <v>99097.8294</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>595</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>1.109285714285714</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.02020202020202</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2737,7 +2881,7 @@
         <v>96667.39910000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2770,7 +2914,7 @@
         <v>96659.39910000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2968,7 +3112,7 @@
         <v>97935.07640000002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3001,7 +3145,7 @@
         <v>97934.07640000002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3034,7 +3178,7 @@
         <v>97934.07640000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3067,7 +3211,7 @@
         <v>97909.07640000002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3100,7 +3244,7 @@
         <v>98764.34700000002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3133,7 +3277,7 @@
         <v>98736.16150000002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3166,7 +3310,7 @@
         <v>98736.16150000002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3199,7 +3343,7 @@
         <v>97727.86930000002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3232,7 +3376,7 @@
         <v>94875.37980000002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3265,7 +3409,7 @@
         <v>93036.09090000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3331,7 +3475,7 @@
         <v>93382.16210000003</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3364,7 +3508,7 @@
         <v>93382.16210000003</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3397,7 +3541,7 @@
         <v>92528.90470000003</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3430,7 +3574,7 @@
         <v>79745.16780000002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -4123,7 +4267,7 @@
         <v>89073.44900000007</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4981,7 +5125,7 @@
         <v>89004.6635000001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
